--- a/Sorption Experiments/RaMont_pH9/RaMont_pH9_NoScript.xlsx
+++ b/Sorption Experiments/RaMont_pH9/RaMont_pH9_NoScript.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox (Personal)\work\MIT Graduate Work\Research\Radium Sorption\Sorption Experiments\RaMont_pH9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox (Personal)\work\MIT Graduate Work\Research\RadiumSorption\Sorption Experiments\RaMont_pH9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Bottle Results" sheetId="5" r:id="rId5"/>
     <sheet name="Averaged Results" sheetId="8" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="147">
   <si>
     <t>Parameters</t>
   </si>
@@ -178,21 +181,12 @@
     <t>Known Activity (uCi)</t>
   </si>
   <si>
-    <t>Known-Average</t>
-  </si>
-  <si>
     <t>Gamma Counter Calculated Activity</t>
   </si>
   <si>
     <t>Scint Counter Calculated Activity (Bq)</t>
   </si>
   <si>
-    <t>Squared Actual Activity Variation from Average</t>
-  </si>
-  <si>
-    <t>Error (Bq)</t>
-  </si>
-  <si>
     <t>Background</t>
   </si>
   <si>
@@ -202,15 +196,6 @@
     <t>SUMMARY OUTPUT</t>
   </si>
   <si>
-    <t>Counter CPS-&gt;Activity (Bq)</t>
-  </si>
-  <si>
-    <t>DOES NOT INCLUDE BACKGROUND</t>
-  </si>
-  <si>
-    <t>Activity (Bq) - &gt; Counter CPS</t>
-  </si>
-  <si>
     <t>Regression Statistics</t>
   </si>
   <si>
@@ -232,9 +217,6 @@
     <t>ANOVA</t>
   </si>
   <si>
-    <t>Std dev of residuals</t>
-  </si>
-  <si>
     <t>df</t>
   </si>
   <si>
@@ -298,15 +280,9 @@
     <t>Residuals</t>
   </si>
   <si>
-    <t>Residual Squared</t>
-  </si>
-  <si>
     <t>Parsons Gamma Counter</t>
   </si>
   <si>
-    <t>Gamma Counter CPS-&gt;Bq</t>
-  </si>
-  <si>
     <t>Solution counts (Bq)</t>
   </si>
   <si>
@@ -485,22 +461,26 @@
   </si>
   <si>
     <t>spH</t>
+  </si>
+  <si>
+    <t>(Known-Average)^2</t>
+  </si>
+  <si>
+    <t>RaStock5</t>
+  </si>
+  <si>
+    <t>RaStock4</t>
+  </si>
+  <si>
+    <t>CPS-&gt;Bq No background</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -557,7 +537,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -584,17 +564,6 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -607,7 +576,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,7 +584,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -627,54 +596,50 @@
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,6 +655,415 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>X Variable 1 Line Fit  Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Calibration Data'!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.4640522875816994E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9815435847137763E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2604166666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0219907407407408E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4872685185185185E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39049768518518518</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Calibration Data'!$I$3:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.31819999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.591</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicted Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Calibration Data'!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.4640522875816994E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9815435847137763E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2604166666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0219907407407408E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4872685185185185E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39049768518518518</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Calibration Data'!$B$70:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.7375179093564292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12652001269851265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0339381254012432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.555200391349953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.9801326442823</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>157.96292673562442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="397650192"/>
+        <c:axId val="397650584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="397650192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X Variable 1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="397650584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="397650584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="397650192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1457325</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sample Parameters"/>
+      <sheetName val="Scintillation Counter Results"/>
+      <sheetName val="Gamma Counter Results"/>
+      <sheetName val="Quality Control Notes"/>
+      <sheetName val="Calibration Data"/>
+      <sheetName val="Stock Log"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="3">
+          <cell r="F3">
+            <v>3.4640522875816994E-3</v>
+          </cell>
+          <cell r="I3">
+            <v>0.31819999999999998</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="F4">
+            <v>7.9815435847137763E-3</v>
+          </cell>
+          <cell r="I4">
+            <v>1.591</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="F5">
+            <v>1.2604166666666666E-2</v>
+          </cell>
+          <cell r="I5">
+            <v>3.1819999999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="F6">
+            <v>5.0219907407407408E-2</v>
+          </cell>
+          <cell r="I6">
+            <v>15.91</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="F7">
+            <v>9.4872685185185185E-2</v>
+          </cell>
+          <cell r="I7">
+            <v>31.82</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="F8">
+            <v>0.39049768518518518</v>
+          </cell>
+          <cell r="I8">
+            <v>159.1</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>-1.7375179093564292</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>0.12652001269851265</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>2.0339381254012432</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>17.555200391349953</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>35.9801326442823</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>157.96292673562442</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -958,7 +1332,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +1362,7 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="18">
         <v>42419</v>
       </c>
     </row>
@@ -1014,7 +1388,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1030,10 +1404,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>631.52245819489701</v>
+        <v>341.69636021701456</v>
       </c>
       <c r="C6">
-        <v>0.53167165791808602</v>
+        <v>0.1278314405168707</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -1057,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD74"/>
+  <dimension ref="A1:AE76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,14 +1448,15 @@
     <col min="7" max="7" width="12" style="2" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" style="2" customWidth="1"/>
     <col min="9" max="10" width="18.7109375" style="2" customWidth="1"/>
-    <col min="11" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>43</v>
       </c>
@@ -1107,24 +1482,20 @@
         <v>36</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="B2" s="2">
         <v>69.266666666666666</v>
@@ -1149,16 +1520,16 @@
       <c r="I2" s="2">
         <v>0</v>
       </c>
+      <c r="K2">
+        <f>F2*$B$63+$B$62</f>
+        <v>-2.6893013764520717</v>
+      </c>
       <c r="L2">
-        <f t="shared" ref="L2:L8" si="0">(D2-$L$30)/$L$31</f>
-        <v>0.24403057137578671</v>
-      </c>
-      <c r="N2">
-        <f t="shared" ref="N2:N8" si="1">$L$20/ABS($L$31)*SQRT(1/$L$21+1+(D2-AVERAGE($D$3:$D$8))^2/($L$31^2*(SUM($M$3:$M$8))))</f>
-        <v>0.23936202341417753</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <f>D2*$B$30+$B$29</f>
+        <v>0.13209164838024126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -1169,11 +1540,11 @@
         <v>4.5389670875898238</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:E8" si="2">B3/60</f>
+        <f t="shared" ref="D3:E9" si="0">B3/60</f>
         <v>3.5588888888888888</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7.5649451459830402E-2</v>
       </c>
       <c r="F3" s="2">
@@ -1184,34 +1555,26 @@
       </c>
       <c r="H3" s="5">
         <f>H7/100</f>
-        <v>1.59E-5</v>
+        <v>8.599999999999999E-6</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" ref="I3:I8" si="3">H3*37000</f>
-        <v>0.58830000000000005</v>
+        <f t="shared" ref="I3:I8" si="1">H3*37000</f>
+        <v>0.31819999999999998</v>
       </c>
       <c r="J3" s="5">
         <f>(I3-AVERAGE($I$3:$I$8))^2</f>
-        <v>4187.7723690000012</v>
+        <v>1225.1400040000001</v>
       </c>
       <c r="K3">
-        <f>F3*$B$61+$B$60</f>
-        <v>-2.249901649732176</v>
+        <f>F3*$B$63+$B$62</f>
+        <v>-1.7375179093564292</v>
       </c>
       <c r="L3">
-        <f t="shared" si="0"/>
-        <v>0.77044240244938123</v>
-      </c>
-      <c r="M3">
-        <f>(I3-AVERAGE($I$3:$I$8))^2</f>
-        <v>4187.7723690000012</v>
-      </c>
-      <c r="N3">
-        <f>$L$20/ABS($L$31)*SQRT(1/$L$21+1+(D3-AVERAGE($D$3:$D$8))^2/($L$31^2*(SUM($M$3:$M$8))))</f>
-        <v>0.23926048894726873</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L3:L10" si="2">D3*$B$30+$B$29</f>
+        <v>0.41681673309525025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
@@ -1222,11 +1585,11 @@
         <v>12.530584805000577</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>14.189444444444446</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.20884308008334296</v>
       </c>
       <c r="F4" s="2">
@@ -1237,34 +1600,26 @@
       </c>
       <c r="H4" s="5">
         <f>H7/20</f>
-        <v>7.9500000000000008E-5</v>
+        <v>4.3000000000000002E-5</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="3"/>
-        <v>2.9415000000000004</v>
+        <f t="shared" si="1"/>
+        <v>1.591</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" ref="J4:J8" si="4">(I4-AVERAGE($I$3:$I$8))^2</f>
-        <v>3888.7446560400017</v>
+        <f t="shared" ref="J4:J8" si="3">(I4-AVERAGE($I$3:$I$8))^2</f>
+        <v>1137.6589326399999</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K8" si="5">F4*$B$61+$B$60</f>
-        <v>1.1815378350424348</v>
+        <f t="shared" ref="K4:K9" si="4">F4*$B$63+$B$62</f>
+        <v>0.12652001269851265</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
-        <v>3.0978200335938433</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M8" si="6">(I4-AVERAGE($I$3:$I$8))^2</f>
-        <v>3888.7446560400017</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="1"/>
-        <v>0.23882097262076729</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1.6756463301427775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
@@ -1275,11 +1630,11 @@
         <v>32.620954410720707</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>27.261666666666667</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.54368257351201177</v>
       </c>
       <c r="F5" s="2">
@@ -1290,34 +1645,26 @@
       </c>
       <c r="H5" s="5">
         <f>H7/10</f>
-        <v>1.5900000000000002E-4</v>
+        <v>8.6000000000000003E-5</v>
       </c>
       <c r="I5" s="5">
+        <f t="shared" si="1"/>
+        <v>3.1819999999999999</v>
+      </c>
+      <c r="J5" s="5">
         <f t="shared" si="3"/>
-        <v>5.8830000000000009</v>
-      </c>
-      <c r="J5" s="5">
+        <v>1032.8638992399999</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="4"/>
-        <v>3530.5343748900009</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="5"/>
-        <v>4.6928343319972328</v>
+        <v>2.0339381254012432</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
-        <v>5.9597586623280572</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="6"/>
-        <v>3530.5343748900009</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="1"/>
-        <v>0.23830159492838568</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>3.2236087246307998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>40</v>
       </c>
@@ -1328,11 +1675,11 @@
         <v>50.234140670352431</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>133.3138888888889</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.83723567783920716</v>
       </c>
       <c r="F6" s="2">
@@ -1343,34 +1690,26 @@
       </c>
       <c r="H6" s="5">
         <f>H7/2</f>
-        <v>7.9500000000000003E-4</v>
+        <v>4.2999999999999999E-4</v>
       </c>
       <c r="I6" s="5">
+        <f t="shared" si="1"/>
+        <v>15.91</v>
+      </c>
+      <c r="J6" s="5">
         <f t="shared" si="3"/>
-        <v>29.415000000000003</v>
-      </c>
-      <c r="J6" s="5">
+        <v>376.75586404000001</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="4"/>
-        <v>1287.8265276900004</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="5"/>
-        <v>33.265360439300757</v>
+        <v>17.555200391349953</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
-        <v>29.178071989722408</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="6"/>
-        <v>1287.8265276900004</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="1"/>
-        <v>0.23496515304651927</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>15.781905933869924</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
@@ -1381,11 +1720,11 @@
         <v>53.513259001171903</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>267.61888888888888</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.89188765001953174</v>
       </c>
       <c r="F7" s="2">
@@ -1395,34 +1734,26 @@
         <v>2.9521990740740741E-3</v>
       </c>
       <c r="H7" s="5">
-        <v>1.5900000000000001E-3</v>
+        <v>8.5999999999999998E-4</v>
       </c>
       <c r="I7" s="5">
+        <f t="shared" si="1"/>
+        <v>31.82</v>
+      </c>
+      <c r="J7" s="5">
         <f t="shared" si="3"/>
-        <v>58.830000000000005</v>
-      </c>
-      <c r="J7" s="5">
+        <v>12.251400039999996</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="4"/>
-        <v>41.877723690000082</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="5"/>
-        <v>67.183146815293682</v>
+        <v>35.9801326442823</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
-        <v>58.581845961582474</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="6"/>
-        <v>41.877723690000082</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="1"/>
-        <v>0.23304764250463261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>31.685788675267496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -1433,11 +1764,11 @@
         <v>80.454997758225829</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1343.9216666666666</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.3409166293037638</v>
       </c>
       <c r="F8" s="2">
@@ -1448,968 +1779,1279 @@
       </c>
       <c r="H8" s="5">
         <f>H7*5</f>
-        <v>7.9500000000000005E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="I8" s="5">
+        <f t="shared" si="1"/>
+        <v>159.1</v>
+      </c>
+      <c r="J8" s="5">
         <f t="shared" si="3"/>
-        <v>294.15000000000003</v>
-      </c>
-      <c r="J8" s="5">
+        <v>15321.438888039998</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="4"/>
-        <v>52371.727491690006</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="5"/>
-        <v>291.73682737921575</v>
+        <v>157.96292673562442</v>
       </c>
       <c r="L8">
+        <f t="shared" si="2"/>
+        <v>159.1374336029937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="2">
+        <v>342248.6</v>
+      </c>
+      <c r="C9" s="2">
+        <f>B9*0.11/100</f>
+        <v>376.47345999999999</v>
+      </c>
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>294.21986095032389</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="6"/>
-        <v>52371.727491690006</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="1"/>
-        <v>0.30267266037130586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+        <v>5704.1433333333325</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2745576666666665</v>
+      </c>
+      <c r="F9">
+        <v>1.9</v>
+      </c>
+      <c r="G9">
+        <f>F9*0.5/100</f>
+        <v>9.4999999999999998E-3</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5">
-        <f>SUM(J3:J8)</f>
-        <v>65308.483143000012</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="J9" s="5"/>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>780.8240178086387</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>675.45815221486782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10">
+        <v>2882.0033333333336</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>341.27116260310561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:31" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="K13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="24"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B16" s="7">
+        <v>0.99999857522978297</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.99999857522978297</v>
+      </c>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
+      <c r="AE16" s="24"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B17" s="7">
+        <v>0.99999715046159587</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.99999715046159587</v>
+      </c>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B18" s="7">
+        <v>0.99999643807699479</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.99999643807699479</v>
+      </c>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="24"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="24"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K12" t="s">
+      <c r="B19" s="7">
+        <v>0.11666575259658109</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.98521674441589902</v>
+      </c>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="24"/>
+      <c r="Y19" s="24"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="24"/>
+      <c r="AC19" s="24"/>
+      <c r="AD19" s="24"/>
+      <c r="AE19" s="24"/>
+    </row>
+    <row r="20" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="M12" t="s">
+      <c r="B20" s="9">
+        <v>6</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" s="9">
+        <v>6</v>
+      </c>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="24"/>
+      <c r="AE20" s="24"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21" s="23"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="24"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="24"/>
+      <c r="AE21" s="24"/>
+    </row>
+    <row r="22" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22" s="23"/>
+      <c r="K22" t="s">
+        <v>60</v>
+      </c>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="24"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="24"/>
+      <c r="AC22" s="24"/>
+      <c r="AD22" s="24"/>
+      <c r="AE22" s="24"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="24"/>
+      <c r="AC23" s="24"/>
+      <c r="AD23" s="24"/>
+      <c r="AE23" s="24"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7">
+        <v>19106.054544408686</v>
+      </c>
+      <c r="D24" s="7">
+        <v>19106.054544408686</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1403732.1258707412</v>
+      </c>
+      <c r="F24" s="7">
+        <v>3.0449538110703924E-12</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L24" s="7">
+        <v>1</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1362535.4424342527</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1362535.4424342527</v>
+      </c>
+      <c r="O24" s="7">
+        <v>1403732.1258709223</v>
+      </c>
+      <c r="P24" s="7">
+        <v>3.0449538110696028E-12</v>
+      </c>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="24"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4</v>
+      </c>
+      <c r="C25" s="7">
+        <v>5.4443591315706669E-2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1.3610897828926667E-2</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L25" s="7">
+        <v>4</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3.8826081339098519</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0.97065203347746298</v>
+      </c>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="24"/>
+      <c r="AD25" s="24"/>
+      <c r="AE25" s="24"/>
+    </row>
+    <row r="26" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="9">
+        <v>5</v>
+      </c>
+      <c r="C26" s="9">
+        <v>19106.108988</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="9">
+        <v>5</v>
+      </c>
+      <c r="M26" s="9">
+        <v>1362539.3250423865</v>
+      </c>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="24"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="24"/>
+      <c r="AC26" s="24"/>
+      <c r="AD26" s="24"/>
+      <c r="AE26" s="24"/>
+    </row>
+    <row r="27" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27" s="23"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="24"/>
+      <c r="AE27" s="24"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="V12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="9">
-        <v>0.99999857522978297</v>
-      </c>
-      <c r="K14" t="s">
-        <v>56</v>
-      </c>
-      <c r="V14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="W14" s="10"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="9">
-        <v>0.99999715046159587</v>
-      </c>
-      <c r="V15" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="W15" s="11">
-        <v>0.99999829960800468</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0.99999643807699479</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="12"/>
-      <c r="V16" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="W16" s="11">
-        <v>0.99999659921890061</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="9">
-        <v>0.2156959844518157</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0.99999857522978297</v>
-      </c>
-      <c r="M17" s="11"/>
-      <c r="V17" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="W17" s="11">
-        <v>0.9999959190626807</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="13">
+      <c r="D28" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="T28" s="24"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="24"/>
+      <c r="AA28" s="24"/>
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="24"/>
+      <c r="AD28" s="24"/>
+      <c r="AE28" s="24"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="7">
+        <v>-4.6132328669372669E-3</v>
+      </c>
+      <c r="C29" s="7">
+        <v>5.6191006719858279E-2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>-8.2099131804786105E-2</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.93851196251841018</v>
+      </c>
+      <c r="F29" s="7">
+        <v>-0.1606244784304241</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.15139801269654957</v>
+      </c>
+      <c r="H29" s="7">
+        <v>-0.1606244784304241</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.15139801269654957</v>
+      </c>
+      <c r="J29" s="12"/>
+      <c r="K29" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L29" s="7">
+        <v>3.9807734204714507E-2</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0.47450311588138688</v>
+      </c>
+      <c r="N29" s="7">
+        <v>8.3893514862956931E-2</v>
+      </c>
+      <c r="O29" s="7">
+        <v>0.93717195197245085</v>
+      </c>
+      <c r="P29" s="7">
+        <v>-1.2776241192852635</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>1.3572395876946926</v>
+      </c>
+      <c r="R29" s="7">
+        <v>-1.2776241192852635</v>
+      </c>
+      <c r="S29" s="7">
+        <v>1.3572395876946926</v>
+      </c>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="24"/>
+    </row>
+    <row r="30" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="9">
+        <v>0.11841616277426437</v>
+      </c>
+      <c r="C30" s="9">
+        <v>9.9946793173107741E-5</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1184.792017980684</v>
+      </c>
+      <c r="E30" s="9">
+        <v>3.0449538110703924E-12</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.11813866598957867</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0.11869365955895006</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0.11813866598957867</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0.11869365955895006</v>
+      </c>
+      <c r="J30" s="12"/>
+      <c r="K30" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" s="9">
+        <v>8.4447690841653227</v>
+      </c>
+      <c r="M30" s="9">
+        <v>7.1276384006686089E-3</v>
+      </c>
+      <c r="N30" s="9">
+        <v>1184.7920179807606</v>
+      </c>
+      <c r="O30" s="9">
+        <v>3.0449538110696028E-12</v>
+      </c>
+      <c r="P30" s="9">
+        <v>8.4249795874161659</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>8.4645585809144794</v>
+      </c>
+      <c r="R30" s="9">
+        <v>8.4249795874161659</v>
+      </c>
+      <c r="S30" s="9">
+        <v>8.4645585809144794</v>
+      </c>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="24"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31" s="23"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="24"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="24"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32" s="23"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="24"/>
+      <c r="W32" s="24"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="24"/>
+      <c r="AA32" s="24"/>
+      <c r="AB32" s="24"/>
+      <c r="AC32" s="24"/>
+      <c r="AD32" s="24"/>
+      <c r="AE32" s="24"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33" s="23"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="24"/>
+      <c r="AA33" s="24"/>
+      <c r="AB33" s="24"/>
+      <c r="AC33" s="24"/>
+      <c r="AD33" s="24"/>
+      <c r="AE33" s="24"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34" s="23"/>
+      <c r="K34" t="s">
+        <v>78</v>
+      </c>
+      <c r="T34" s="24"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="24"/>
+      <c r="W34" s="24"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="24"/>
+      <c r="AA34" s="24"/>
+      <c r="AB34" s="24"/>
+      <c r="AC34" s="24"/>
+      <c r="AD34" s="24"/>
+      <c r="AE34" s="24"/>
+    </row>
+    <row r="35" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35" s="23"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="24"/>
+      <c r="W35" s="24"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="24"/>
+      <c r="AA35" s="24"/>
+      <c r="AB35" s="24"/>
+      <c r="AC35" s="24"/>
+      <c r="AD35" s="24"/>
+      <c r="AE35" s="24"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="24"/>
+      <c r="AA36" s="24"/>
+      <c r="AB36" s="24"/>
+      <c r="AC36" s="24"/>
+      <c r="AD36" s="24"/>
+      <c r="AE36" s="24"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>1</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.41681673309525025</v>
+      </c>
+      <c r="C37" s="7">
+        <v>-9.8616733095250264E-2</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="7">
+        <v>1</v>
+      </c>
+      <c r="L37" s="7">
+        <v>2.7269332567861202</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0.83195563210276857</v>
+      </c>
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="24"/>
+      <c r="AA37" s="24"/>
+      <c r="AB37" s="24"/>
+      <c r="AC37" s="24"/>
+      <c r="AD37" s="24"/>
+      <c r="AE37" s="24"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>2</v>
+      </c>
+      <c r="B38" s="7">
+        <v>1.6756463301427775</v>
+      </c>
+      <c r="C38" s="7">
+        <v>-8.4646330142777559E-2</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="7">
+        <v>2</v>
+      </c>
+      <c r="L38" s="7">
+        <v>13.475435347111743</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0.71400909733270268</v>
+      </c>
+      <c r="T38" s="24"/>
+      <c r="U38" s="24"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="24"/>
+      <c r="Z38" s="24"/>
+      <c r="AA38" s="24"/>
+      <c r="AB38" s="24"/>
+      <c r="AC38" s="24"/>
+      <c r="AD38" s="24"/>
+      <c r="AE38" s="24"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>3</v>
+      </c>
+      <c r="B39" s="7">
+        <v>3.2236087246307998</v>
+      </c>
+      <c r="C39" s="7">
+        <v>-4.1608724630799898E-2</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="7">
+        <v>3</v>
+      </c>
+      <c r="L39" s="7">
+        <v>26.911062960018771</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0.35060370664789531</v>
+      </c>
+      <c r="T39" s="24"/>
+      <c r="U39" s="24"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="24"/>
+      <c r="Z39" s="24"/>
+      <c r="AA39" s="24"/>
+      <c r="AB39" s="24"/>
+      <c r="AC39" s="24"/>
+      <c r="AD39" s="24"/>
+      <c r="AE39" s="24"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>4</v>
+      </c>
+      <c r="B40" s="7">
+        <v>15.781905933869924</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.12809406613007646</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="7">
+        <v>4</v>
+      </c>
+      <c r="L40" s="7">
+        <v>134.39608386327501</v>
+      </c>
+      <c r="M40" s="7">
+        <v>-1.0821949743861126</v>
+      </c>
+      <c r="T40" s="24"/>
+      <c r="U40" s="24"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="24"/>
+      <c r="Z40" s="24"/>
+      <c r="AA40" s="24"/>
+      <c r="AB40" s="24"/>
+      <c r="AC40" s="24"/>
+      <c r="AD40" s="24"/>
+      <c r="AE40" s="24"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>5</v>
+      </c>
+      <c r="B41" s="7">
+        <v>31.685788675267496</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.13421132473250452</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="7">
+        <v>5</v>
+      </c>
+      <c r="L41" s="7">
+        <v>268.7523599923453</v>
+      </c>
+      <c r="M41" s="7">
+        <v>-1.1334711034564293</v>
+      </c>
+      <c r="T41" s="24"/>
+      <c r="U41" s="24"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="24"/>
+      <c r="Z41" s="24"/>
+      <c r="AA41" s="24"/>
+      <c r="AB41" s="24"/>
+      <c r="AC41" s="24"/>
+      <c r="AD41" s="24"/>
+      <c r="AE41" s="24"/>
+    </row>
+    <row r="42" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
         <v>6</v>
       </c>
-      <c r="K18" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L18" s="11">
-        <v>0.99999715046159587</v>
-      </c>
-      <c r="M18" s="11"/>
-      <c r="V18" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="W18" s="11">
-        <v>0.21657792198407996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K19" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0.99999643807699479</v>
-      </c>
-      <c r="M19" s="11"/>
-      <c r="V19" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="W19" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="L20" s="11">
-        <v>0.98521674441591967</v>
-      </c>
-      <c r="M20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="L21" s="14">
+      <c r="B42" s="9">
+        <v>159.1374336029937</v>
+      </c>
+      <c r="C42" s="9">
+        <v>-3.7433602993701243E-2</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="9">
         <v>6</v>
       </c>
-      <c r="M21" s="11"/>
-      <c r="V21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="9">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9">
-        <v>65308.297043969178</v>
-      </c>
-      <c r="D22" s="9">
-        <v>65308.297043969178</v>
-      </c>
-      <c r="E22" s="9">
-        <v>1403732.125870778</v>
-      </c>
-      <c r="F22" s="9">
-        <v>3.0449538110702301E-12</v>
-      </c>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="X22" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y22" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z22" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA22" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="9">
-        <v>4</v>
-      </c>
-      <c r="C23" s="9">
-        <v>0.1860990308345517</v>
-      </c>
-      <c r="D23" s="9">
-        <v>4.6524757708637926E-2</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="K23" t="s">
-        <v>66</v>
-      </c>
-      <c r="V23" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="W23" s="11">
-        <v>1</v>
-      </c>
-      <c r="X23" s="11">
-        <v>68963.328425895714</v>
-      </c>
-      <c r="Y23" s="11">
-        <v>68963.328425895714</v>
-      </c>
-      <c r="Z23" s="11">
-        <v>1470245.467085684</v>
-      </c>
-      <c r="AA23" s="11">
-        <v>7.241458966576287E-15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="13">
-        <v>5</v>
-      </c>
-      <c r="C24" s="13">
-        <v>65308.483143000012</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q24" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="V24" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="W24" s="11">
-        <v>5</v>
-      </c>
-      <c r="X24" s="11">
-        <v>0.23452998145471113</v>
-      </c>
-      <c r="Y24" s="11">
-        <v>4.6905996290942227E-2</v>
-      </c>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-    </row>
-    <row r="25" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K25" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="L25" s="11">
-        <v>1</v>
-      </c>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11">
-        <v>1362535.4424342527</v>
-      </c>
-      <c r="O25" s="11">
-        <v>1362535.4424342527</v>
-      </c>
-      <c r="P25" s="11">
-        <v>1403732.1258708637</v>
-      </c>
-      <c r="Q25" s="11">
-        <v>3.0449538110698621E-12</v>
-      </c>
-      <c r="V25" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="W25" s="14">
-        <v>6</v>
-      </c>
-      <c r="X25" s="14">
-        <v>68963.562955877162</v>
-      </c>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-    </row>
-    <row r="26" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" s="15" t="s">
+      <c r="L42" s="9">
+        <v>1343.6025690249076</v>
+      </c>
+      <c r="M42" s="9">
+        <v>0.31909764175907185</v>
+      </c>
+      <c r="T42" s="24"/>
+      <c r="U42" s="24"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="24"/>
+      <c r="Z42" s="24"/>
+      <c r="AA42" s="24"/>
+      <c r="AB42" s="24"/>
+      <c r="AC42" s="24"/>
+      <c r="AD42" s="24"/>
+      <c r="AE42" s="24"/>
+    </row>
+    <row r="43" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="24"/>
+      <c r="U43" s="24"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="24"/>
+      <c r="Z43" s="24"/>
+      <c r="AA43" s="24"/>
+      <c r="AB43" s="24"/>
+      <c r="AC43" s="24"/>
+      <c r="AD43" s="24"/>
+      <c r="AE43" s="24"/>
+    </row>
+    <row r="44" spans="1:31" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="25"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="25"/>
+      <c r="X44" s="25"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="L26" s="11">
-        <v>4</v>
-      </c>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11">
-        <v>3.882608133910014</v>
-      </c>
-      <c r="O26" s="11">
-        <v>0.97065203347750351</v>
-      </c>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-    </row>
-    <row r="27" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="9">
-        <v>-8.5291165795524648E-3</v>
-      </c>
-      <c r="C27" s="9">
-        <v>0.10388802405182966</v>
-      </c>
-      <c r="D27" s="9">
-        <v>-8.2099131804617781E-2</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0.93851196251853586</v>
-      </c>
-      <c r="F27" s="9">
-        <v>-0.29696851244692557</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0.27991027928782064</v>
-      </c>
-      <c r="H27" s="9">
-        <v>-0.29696851244692557</v>
-      </c>
-      <c r="I27" s="9">
-        <v>0.27991027928782064</v>
-      </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="L27" s="14">
-        <v>5</v>
-      </c>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14">
-        <v>1362539.3250423865</v>
-      </c>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="X27" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y27" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z27" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA27" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB27" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC27" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD27" s="16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="13">
-        <v>0.21893220791986087</v>
-      </c>
-      <c r="C28" s="13">
-        <v>1.8478535016888282E-4</v>
-      </c>
-      <c r="D28" s="13">
-        <v>1184.7920179806995</v>
-      </c>
-      <c r="E28" s="13">
-        <v>3.0449538110702301E-12</v>
-      </c>
-      <c r="F28" s="13">
-        <v>0.21841916153887223</v>
-      </c>
-      <c r="G28" s="13">
-        <v>0.21944525430084952</v>
-      </c>
-      <c r="H28" s="13">
-        <v>0.21841916153887223</v>
-      </c>
-      <c r="I28" s="13">
-        <v>0.21944525430084952</v>
-      </c>
-      <c r="J28" s="18"/>
-      <c r="V28" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="W28" s="11">
-        <v>-5.448301612160833E-2</v>
-      </c>
-      <c r="X28" s="11">
-        <v>9.3999431059690358E-2</v>
-      </c>
-      <c r="Y28" s="11">
-        <v>-0.57961006260783854</v>
-      </c>
-      <c r="Z28" s="11">
-        <v>0.58731182151210115</v>
-      </c>
-      <c r="AA28" s="11">
-        <v>-0.29611624616379639</v>
-      </c>
-      <c r="AB28" s="11">
-        <v>0.18715021392057976</v>
-      </c>
-      <c r="AC28" s="11">
-        <v>-0.29611624616379639</v>
-      </c>
-      <c r="AD28" s="11">
-        <v>0.18715021392057976</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K29" s="16"/>
-      <c r="L29" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="O29" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="P29" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q29" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="R29" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="S29" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="T29" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="V29" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="W29" s="14">
-        <v>0.21897545779439398</v>
-      </c>
-      <c r="X29" s="14">
-        <v>1.8059283611157159E-4</v>
-      </c>
-      <c r="Y29" s="14">
-        <v>1212.5367899926514</v>
-      </c>
-      <c r="Z29" s="14">
-        <v>7.241458966576287E-15</v>
-      </c>
-      <c r="AA29" s="14">
-        <v>0.21851122913023951</v>
-      </c>
-      <c r="AB29" s="14">
-        <v>0.21943968645854844</v>
-      </c>
-      <c r="AC29" s="14">
-        <v>0.21851122913023951</v>
-      </c>
-      <c r="AD29" s="14">
-        <v>0.21943968645854844</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="K30" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="L30" s="11">
-        <v>3.980773420477135E-2</v>
-      </c>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11">
-        <v>0.47450311588139682</v>
-      </c>
-      <c r="O30" s="11">
-        <v>8.3893514863074975E-2</v>
-      </c>
-      <c r="P30" s="11">
-        <v>0.93717195197236269</v>
-      </c>
-      <c r="Q30" s="11">
-        <v>-1.2776241192852342</v>
-      </c>
-      <c r="R30" s="11">
-        <v>1.3572395876947769</v>
-      </c>
-      <c r="S30" s="11">
-        <v>-1.2776241192852342</v>
-      </c>
-      <c r="T30" s="11">
-        <v>1.3572395876947769</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K31" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="L31" s="14">
-        <v>4.5676109511837577</v>
-      </c>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14">
-        <v>3.8552006443868751E-3</v>
-      </c>
-      <c r="O31" s="14">
-        <v>1184.7920179807356</v>
-      </c>
-      <c r="P31" s="14">
-        <v>3.0449538110698516E-12</v>
-      </c>
-      <c r="Q31" s="14">
-        <v>4.5569071982250948</v>
-      </c>
-      <c r="R31" s="14">
-        <v>4.5783147041424206</v>
-      </c>
-      <c r="S31" s="14">
-        <v>4.5569071982250948</v>
-      </c>
-      <c r="T31" s="14">
-        <v>4.5783147041424206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>1</v>
-      </c>
-      <c r="B35" s="9">
-        <v>0.77062628560635238</v>
-      </c>
-      <c r="C35" s="9">
-        <v>-0.18232628560635233</v>
-      </c>
-      <c r="K35" t="s">
-        <v>85</v>
-      </c>
-      <c r="V35" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="W35" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="X35" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
-        <v>2</v>
-      </c>
-      <c r="B36" s="9">
-        <v>3.0979972847988737</v>
-      </c>
-      <c r="C36" s="9">
-        <v>-0.15649728479887326</v>
-      </c>
-      <c r="V36" s="11">
-        <v>1</v>
-      </c>
-      <c r="W36" s="11">
-        <v>0.19831198459880872</v>
-      </c>
-      <c r="X36" s="11">
-        <v>-0.19831198459880872</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>3</v>
-      </c>
-      <c r="B37" s="9">
-        <v>5.9599277583290551</v>
-      </c>
-      <c r="C37" s="9">
-        <v>-7.6927758329054186E-2</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="L37" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="O37" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="V37" s="11">
-        <v>2</v>
-      </c>
-      <c r="W37" s="11">
-        <v>0.72482630756221822</v>
-      </c>
-      <c r="X37" s="11">
-        <v>-0.13652630756221817</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
-        <v>4</v>
-      </c>
-      <c r="B38" s="9">
-        <v>29.178174924247902</v>
-      </c>
-      <c r="C38" s="9">
-        <v>0.2368250757521011</v>
-      </c>
-      <c r="K38" s="11">
-        <v>1</v>
-      </c>
-      <c r="L38" s="11">
-        <v>2.7269332567861762</v>
-      </c>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11">
-        <v>0.83195563210271262</v>
-      </c>
-      <c r="O38">
-        <f>N38^2</f>
-        <v>0.69215017378742405</v>
-      </c>
-      <c r="V38" s="11">
-        <v>3</v>
-      </c>
-      <c r="W38" s="11">
-        <v>3.0526570769487344</v>
-      </c>
-      <c r="X38" s="11">
-        <v>-0.111157076948734</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
-        <v>5</v>
-      </c>
-      <c r="B39" s="9">
-        <v>58.581865108924809</v>
-      </c>
-      <c r="C39" s="9">
-        <v>0.24813489107519615</v>
-      </c>
-      <c r="K39" s="11">
-        <v>2</v>
-      </c>
-      <c r="L39" s="11">
-        <v>13.475435347111796</v>
-      </c>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11">
-        <v>0.71400909733264939</v>
-      </c>
-      <c r="O39">
-        <f t="shared" ref="O39:O43" si="7">N39^2</f>
-        <v>0.50980899107378475</v>
-      </c>
-      <c r="V39" s="11">
-        <v>4</v>
-      </c>
-      <c r="W39" s="11">
-        <v>5.915152922449896</v>
-      </c>
-      <c r="X39" s="11">
-        <v>-3.2152922449895094E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13">
-        <v>6</v>
-      </c>
-      <c r="B40" s="13">
-        <v>294.21920863809305</v>
-      </c>
-      <c r="C40" s="13">
-        <v>-6.9208638093016361E-2</v>
-      </c>
-      <c r="K40" s="11">
-        <v>3</v>
-      </c>
-      <c r="L40" s="11">
-        <v>26.911062960018821</v>
-      </c>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11">
-        <v>0.35060370664784557</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="7"/>
-        <v>0.12292295911520855</v>
-      </c>
-      <c r="V40" s="11">
-        <v>5</v>
-      </c>
-      <c r="W40" s="11">
-        <v>29.137986833673811</v>
-      </c>
-      <c r="X40" s="11">
-        <v>0.27701316632619211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13">
-        <v>6</v>
-      </c>
-      <c r="B41" s="13">
-        <v>1343.6025690249071</v>
-      </c>
-      <c r="C41" s="13">
-        <v>0.3190976417595266</v>
-      </c>
-      <c r="K41" s="11">
-        <v>4</v>
-      </c>
-      <c r="L41" s="11">
-        <v>134.39608386327501</v>
-      </c>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11">
-        <v>-1.0821949743861126</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="7"/>
-        <v>1.1711459625865588</v>
-      </c>
-      <c r="V41" s="11">
-        <v>6</v>
-      </c>
-      <c r="W41" s="11">
-        <v>58.547485692749888</v>
-      </c>
-      <c r="X41" s="11">
-        <v>0.28251430725011772</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K42" s="11">
-        <v>5</v>
-      </c>
-      <c r="L42" s="11">
-        <v>268.75235999234525</v>
-      </c>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11">
-        <v>-1.1334711034563725</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="7"/>
-        <v>1.2847567423706066</v>
-      </c>
-      <c r="V42" s="14">
-        <v>7</v>
-      </c>
-      <c r="W42" s="14">
-        <v>294.23137918201667</v>
-      </c>
-      <c r="X42" s="14">
-        <v>-8.1379182016632967E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="K43" s="14">
-        <v>6</v>
-      </c>
-      <c r="L43" s="14">
-        <v>1343.6025690249071</v>
-      </c>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14">
-        <v>0.3190976417595266</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="7"/>
-        <v>0.10182330497649117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-    </row>
-    <row r="45" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="10"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="24"/>
+      <c r="T45" s="24"/>
+      <c r="U45" s="24"/>
+      <c r="V45" s="24"/>
+      <c r="W45" s="24"/>
+      <c r="X45" s="24"/>
+      <c r="Y45" s="24"/>
+      <c r="Z45" s="24"/>
+      <c r="AA45" s="24"/>
+      <c r="AB45" s="24"/>
+      <c r="AC45" s="24"/>
+      <c r="AD45" s="24"/>
+      <c r="AE45" s="24"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
@@ -2417,14 +3059,32 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="11">
-        <v>0.99913678675732565</v>
-      </c>
+      <c r="J46" s="23"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="24"/>
+      <c r="V46" s="24"/>
+      <c r="W46" s="24"/>
+      <c r="X46" s="24"/>
+      <c r="Y46" s="24"/>
+      <c r="Z46" s="24"/>
+      <c r="AA46" s="24"/>
+      <c r="AB46" s="24"/>
+      <c r="AC46" s="24"/>
+      <c r="AD46" s="24"/>
+      <c r="AE46" s="24"/>
+    </row>
+    <row r="47" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47"/>
+      <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
@@ -2432,14 +3092,34 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="11">
-        <v>0.99827431865175353</v>
-      </c>
+      <c r="J47" s="23"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="24"/>
+      <c r="U47" s="24"/>
+      <c r="V47" s="24"/>
+      <c r="W47" s="24"/>
+      <c r="X47" s="24"/>
+      <c r="Y47" s="24"/>
+      <c r="Z47" s="24"/>
+      <c r="AA47" s="24"/>
+      <c r="AB47" s="24"/>
+      <c r="AC47" s="24"/>
+      <c r="AD47" s="24"/>
+      <c r="AE47" s="24"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="6"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
@@ -2447,13 +3127,35 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="11">
-        <v>0.99792918238210437</v>
+      <c r="J48" s="23"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="24"/>
+      <c r="U48" s="24"/>
+      <c r="V48" s="24"/>
+      <c r="W48" s="24"/>
+      <c r="X48" s="24"/>
+      <c r="Y48" s="24"/>
+      <c r="Z48" s="24"/>
+      <c r="AA48" s="24"/>
+      <c r="AB48" s="24"/>
+      <c r="AC48" s="24"/>
+      <c r="AD48" s="24"/>
+      <c r="AE48" s="24"/>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="7">
+        <v>0.99924092193949743</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
@@ -2462,13 +3164,35 @@
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="11">
-        <v>4.8787115983951139</v>
+      <c r="J49" s="23"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="24"/>
+      <c r="T49" s="24"/>
+      <c r="U49" s="24"/>
+      <c r="V49" s="24"/>
+      <c r="W49" s="24"/>
+      <c r="X49" s="24"/>
+      <c r="Y49" s="24"/>
+      <c r="Z49" s="24"/>
+      <c r="AA49" s="24"/>
+      <c r="AB49" s="24"/>
+      <c r="AC49" s="24"/>
+      <c r="AD49" s="24"/>
+      <c r="AE49" s="24"/>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0.99848242007849675</v>
       </c>
       <c r="C50"/>
       <c r="D50"/>
@@ -2477,13 +3201,35 @@
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="14">
-        <v>7</v>
+      <c r="J50" s="23"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="24"/>
+      <c r="T50" s="24"/>
+      <c r="U50" s="24"/>
+      <c r="V50" s="24"/>
+      <c r="W50" s="24"/>
+      <c r="X50" s="24"/>
+      <c r="Y50" s="24"/>
+      <c r="Z50" s="24"/>
+      <c r="AA50" s="24"/>
+      <c r="AB50" s="24"/>
+      <c r="AC50" s="24"/>
+      <c r="AD50" s="24"/>
+      <c r="AE50" s="24"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0.99810302509812088</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -2492,10 +3238,36 @@
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52"/>
-      <c r="B52"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="24"/>
+      <c r="U51" s="24"/>
+      <c r="V51" s="24"/>
+      <c r="W51" s="24"/>
+      <c r="X51" s="24"/>
+      <c r="Y51" s="24"/>
+      <c r="Z51" s="24"/>
+      <c r="AA51" s="24"/>
+      <c r="AB51" s="24"/>
+      <c r="AC51" s="24"/>
+      <c r="AD51" s="24"/>
+      <c r="AE51" s="24"/>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="7">
+        <v>2.6923524740569098</v>
+      </c>
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
@@ -2503,12 +3275,36 @@
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>66</v>
-      </c>
-      <c r="B53"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="24"/>
+      <c r="T52" s="24"/>
+      <c r="U52" s="24"/>
+      <c r="V52" s="24"/>
+      <c r="W52" s="24"/>
+      <c r="X52" s="24"/>
+      <c r="Y52" s="24"/>
+      <c r="Z52" s="24"/>
+      <c r="AA52" s="24"/>
+      <c r="AB52" s="24"/>
+      <c r="AC52" s="24"/>
+      <c r="AD52" s="24"/>
+      <c r="AE52" s="24"/>
+    </row>
+    <row r="53" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="9">
+        <v>6</v>
+      </c>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
@@ -2516,209 +3312,450 @@
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>72</v>
-      </c>
+      <c r="J53" s="23"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
+      <c r="T53" s="24"/>
+      <c r="U53" s="24"/>
+      <c r="V53" s="24"/>
+      <c r="W53" s="24"/>
+      <c r="X53" s="24"/>
+      <c r="Y53" s="24"/>
+      <c r="Z53" s="24"/>
+      <c r="AA53" s="24"/>
+      <c r="AB53" s="24"/>
+      <c r="AC53" s="24"/>
+      <c r="AD53" s="24"/>
+      <c r="AE53" s="24"/>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55" s="11">
-        <v>1</v>
-      </c>
-      <c r="C55" s="11">
-        <v>68844.553821575581</v>
-      </c>
-      <c r="D55" s="11">
-        <v>68844.553821575581</v>
-      </c>
-      <c r="E55" s="11">
-        <v>2892.4062940883214</v>
-      </c>
-      <c r="F55" s="11">
-        <v>4.2028918326297201E-8</v>
-      </c>
+      <c r="J54" s="23"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="24"/>
+      <c r="S54" s="24"/>
+      <c r="T54" s="24"/>
+      <c r="U54" s="24"/>
+      <c r="V54" s="24"/>
+      <c r="W54" s="24"/>
+      <c r="X54" s="24"/>
+      <c r="Y54" s="24"/>
+      <c r="Z54" s="24"/>
+      <c r="AA54" s="24"/>
+      <c r="AB54" s="24"/>
+      <c r="AC54" s="24"/>
+      <c r="AD54" s="24"/>
+      <c r="AE54" s="24"/>
+    </row>
+    <row r="55" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B56" s="11">
-        <v>5</v>
-      </c>
-      <c r="C56" s="11">
-        <v>119.00913430157502</v>
-      </c>
-      <c r="D56" s="11">
-        <v>23.801826860315003</v>
-      </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="24"/>
+      <c r="T55" s="24"/>
+      <c r="U55" s="24"/>
+      <c r="V55" s="24"/>
+      <c r="W55" s="24"/>
+      <c r="X55" s="24"/>
+      <c r="Y55" s="24"/>
+      <c r="Z55" s="24"/>
+      <c r="AA55" s="24"/>
+      <c r="AB55" s="24"/>
+      <c r="AC55" s="24"/>
+      <c r="AD55" s="24"/>
+      <c r="AE55" s="24"/>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>65</v>
+      </c>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B57" s="14">
-        <v>6</v>
-      </c>
-      <c r="C57" s="14">
-        <v>68963.562955877162</v>
-      </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="24"/>
+      <c r="P56" s="24"/>
+      <c r="Q56" s="24"/>
+      <c r="R56" s="24"/>
+      <c r="S56" s="24"/>
+      <c r="T56" s="24"/>
+      <c r="U56" s="24"/>
+      <c r="V56" s="24"/>
+      <c r="W56" s="24"/>
+      <c r="X56" s="24"/>
+      <c r="Y56" s="24"/>
+      <c r="Z56" s="24"/>
+      <c r="AA56" s="24"/>
+      <c r="AB56" s="24"/>
+      <c r="AC56" s="24"/>
+      <c r="AD56" s="24"/>
+      <c r="AE56" s="24"/>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="7">
+        <v>1</v>
+      </c>
+      <c r="C57" s="7">
+        <v>19077.113940621759</v>
+      </c>
+      <c r="D57" s="7">
+        <v>19077.113940621759</v>
+      </c>
+      <c r="E57" s="7">
+        <v>2631.7755155575519</v>
+      </c>
+      <c r="F57" s="7">
+        <v>8.6408056270436361E-7</v>
+      </c>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="24"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="24"/>
+      <c r="R57" s="24"/>
+      <c r="S57" s="24"/>
+      <c r="T57" s="24"/>
+      <c r="U57" s="24"/>
+      <c r="V57" s="24"/>
+      <c r="W57" s="24"/>
+      <c r="X57" s="24"/>
+      <c r="Y57" s="24"/>
+      <c r="Z57" s="24"/>
+      <c r="AA57" s="24"/>
+      <c r="AB57" s="24"/>
+      <c r="AC57" s="24"/>
+      <c r="AD57" s="24"/>
+      <c r="AE57" s="24"/>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="7">
+        <v>4</v>
+      </c>
+      <c r="C58" s="7">
+        <v>28.995047378241452</v>
+      </c>
+      <c r="D58" s="7">
+        <v>7.248761844560363</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16" t="s">
+      <c r="J58" s="23"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="24"/>
+      <c r="S58" s="24"/>
+      <c r="T58" s="24"/>
+      <c r="U58" s="24"/>
+      <c r="V58" s="24"/>
+      <c r="W58" s="24"/>
+      <c r="X58" s="24"/>
+      <c r="Y58" s="24"/>
+      <c r="Z58" s="24"/>
+      <c r="AA58" s="24"/>
+      <c r="AB58" s="24"/>
+      <c r="AC58" s="24"/>
+      <c r="AD58" s="24"/>
+      <c r="AE58" s="24"/>
+    </row>
+    <row r="59" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="9">
+        <v>5</v>
+      </c>
+      <c r="C59" s="9">
+        <v>19106.108988</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="24"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="24"/>
+      <c r="S59" s="24"/>
+      <c r="T59" s="24"/>
+      <c r="U59" s="24"/>
+      <c r="V59" s="24"/>
+      <c r="W59" s="24"/>
+      <c r="X59" s="24"/>
+      <c r="Y59" s="24"/>
+      <c r="Z59" s="24"/>
+      <c r="AA59" s="24"/>
+      <c r="AB59" s="24"/>
+      <c r="AC59" s="24"/>
+      <c r="AD59" s="24"/>
+      <c r="AE59" s="24"/>
+    </row>
+    <row r="60" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="24"/>
+      <c r="R60" s="24"/>
+      <c r="S60" s="24"/>
+      <c r="T60" s="24"/>
+      <c r="U60" s="24"/>
+      <c r="V60" s="24"/>
+      <c r="W60" s="24"/>
+      <c r="X60" s="24"/>
+      <c r="Y60" s="24"/>
+      <c r="Z60" s="24"/>
+      <c r="AA60" s="24"/>
+      <c r="AB60" s="24"/>
+      <c r="AC60" s="24"/>
+      <c r="AD60" s="24"/>
+      <c r="AE60" s="24"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J61" s="11"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="24"/>
+      <c r="R61" s="24"/>
+      <c r="S61" s="24"/>
+      <c r="T61" s="24"/>
+      <c r="U61" s="24"/>
+      <c r="V61" s="24"/>
+      <c r="W61" s="24"/>
+      <c r="X61" s="24"/>
+      <c r="Y61" s="24"/>
+      <c r="Z61" s="24"/>
+      <c r="AA61" s="24"/>
+      <c r="AB61" s="24"/>
+      <c r="AC61" s="24"/>
+      <c r="AD61" s="24"/>
+      <c r="AE61" s="24"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C59" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="16" t="s">
+      <c r="B62" s="7">
+        <v>-3.166878676942801</v>
+      </c>
+      <c r="C62" s="7">
+        <v>1.3307749314427235</v>
+      </c>
+      <c r="D62" s="7">
+        <v>-2.3797252278486458</v>
+      </c>
+      <c r="E62" s="7">
+        <v>7.6011981534629777E-2</v>
+      </c>
+      <c r="F62" s="7">
+        <v>-6.8617022214668797</v>
+      </c>
+      <c r="G62" s="7">
+        <v>0.52794486758127768</v>
+      </c>
+      <c r="H62" s="7">
+        <v>-6.8617022214668797</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0.52794486758127768</v>
+      </c>
+      <c r="J62" s="12"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="24"/>
+      <c r="Q62" s="24"/>
+      <c r="R62" s="24"/>
+      <c r="S62" s="24"/>
+      <c r="T62" s="24"/>
+      <c r="U62" s="24"/>
+      <c r="V62" s="24"/>
+      <c r="W62" s="24"/>
+      <c r="X62" s="24"/>
+      <c r="Y62" s="24"/>
+      <c r="Z62" s="24"/>
+      <c r="AA62" s="24"/>
+      <c r="AB62" s="24"/>
+      <c r="AC62" s="24"/>
+      <c r="AD62" s="24"/>
+      <c r="AE62" s="24"/>
+    </row>
+    <row r="63" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E59" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="H59" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="I59" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="J59" s="17"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B60" s="11">
-        <v>-4.8811598005730872</v>
-      </c>
-      <c r="C60" s="11">
-        <v>2.1634624433925831</v>
-      </c>
-      <c r="D60" s="11">
-        <v>-2.2561795863295924</v>
-      </c>
-      <c r="E60" s="11">
-        <v>7.3703712687858761E-2</v>
-      </c>
-      <c r="F60" s="11">
-        <v>-10.442517059639421</v>
-      </c>
-      <c r="G60" s="11">
-        <v>0.68019745849324664</v>
-      </c>
-      <c r="H60" s="11">
-        <v>-10.442517059639421</v>
-      </c>
-      <c r="I60" s="11">
-        <v>0.68019745849324664</v>
-      </c>
-      <c r="J60" s="9"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="B61" s="14">
-        <v>759.58961712954601</v>
-      </c>
-      <c r="C61" s="14">
-        <v>14.12372883203613</v>
-      </c>
-      <c r="D61" s="14">
-        <v>53.781096066260332</v>
-      </c>
-      <c r="E61" s="14">
-        <v>4.2028918326297201E-8</v>
-      </c>
-      <c r="F61" s="14">
-        <v>723.28341634246101</v>
-      </c>
-      <c r="G61" s="14">
-        <v>795.89581791663102</v>
-      </c>
-      <c r="H61" s="14">
-        <v>723.28341634246101</v>
-      </c>
-      <c r="I61" s="14">
-        <v>795.89581791663102</v>
-      </c>
-      <c r="J61" s="18"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="9">
+        <v>412.62678762399031</v>
+      </c>
+      <c r="C63" s="9">
+        <v>8.0432764859340793</v>
+      </c>
+      <c r="D63" s="9">
+        <v>51.300833478195578</v>
+      </c>
+      <c r="E63" s="9">
+        <v>8.6408056270436361E-7</v>
+      </c>
+      <c r="F63" s="9">
+        <v>390.29507199486613</v>
+      </c>
+      <c r="G63" s="9">
+        <v>434.95850325311449</v>
+      </c>
+      <c r="H63" s="9">
+        <v>390.29507199486613</v>
+      </c>
+      <c r="I63" s="9">
+        <v>434.95850325311449</v>
+      </c>
+      <c r="J63" s="12"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24"/>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="24"/>
+      <c r="S63" s="24"/>
+      <c r="T63" s="24"/>
+      <c r="U63" s="24"/>
+      <c r="V63" s="24"/>
+      <c r="W63" s="24"/>
+      <c r="X63" s="24"/>
+      <c r="Y63" s="24"/>
+      <c r="Z63" s="24"/>
+      <c r="AA63" s="24"/>
+      <c r="AB63" s="24"/>
+      <c r="AC63" s="24"/>
+      <c r="AD63" s="24"/>
+      <c r="AE63" s="24"/>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -2728,11 +3765,31 @@
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>85</v>
-      </c>
+      <c r="J64" s="23"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="24"/>
+      <c r="Q64" s="24"/>
+      <c r="R64" s="24"/>
+      <c r="S64" s="24"/>
+      <c r="T64" s="24"/>
+      <c r="U64" s="24"/>
+      <c r="V64" s="24"/>
+      <c r="W64" s="24"/>
+      <c r="X64" s="24"/>
+      <c r="Y64" s="24"/>
+      <c r="Z64" s="24"/>
+      <c r="AA64" s="24"/>
+      <c r="AB64" s="24"/>
+      <c r="AC64" s="24"/>
+      <c r="AD64" s="24"/>
+      <c r="AE64" s="24"/>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
@@ -2741,8 +3798,30 @@
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
-    </row>
-    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J65" s="23"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="24"/>
+      <c r="S65" s="24"/>
+      <c r="T65" s="24"/>
+      <c r="U65" s="24"/>
+      <c r="V65" s="24"/>
+      <c r="W65" s="24"/>
+      <c r="X65" s="24"/>
+      <c r="Y65" s="24"/>
+      <c r="Z65" s="24"/>
+      <c r="AA65" s="24"/>
+      <c r="AB65" s="24"/>
+      <c r="AC65" s="24"/>
+      <c r="AD65" s="24"/>
+      <c r="AE65" s="24"/>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -2752,50 +3831,106 @@
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>88</v>
-      </c>
+      <c r="J66" s="23"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="24"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="24"/>
+      <c r="S66" s="24"/>
+      <c r="T66" s="24"/>
+      <c r="U66" s="24"/>
+      <c r="V66" s="24"/>
+      <c r="W66" s="24"/>
+      <c r="X66" s="24"/>
+      <c r="Y66" s="24"/>
+      <c r="Z66" s="24"/>
+      <c r="AA66" s="24"/>
+      <c r="AB66" s="24"/>
+      <c r="AC66" s="24"/>
+      <c r="AD66" s="24"/>
+      <c r="AE66" s="24"/>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67"/>
+      <c r="C67"/>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67"/>
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="11">
-        <v>1</v>
-      </c>
-      <c r="B68" s="11">
-        <v>-4.0020051511175945</v>
-      </c>
-      <c r="C68" s="11">
-        <v>4.0020051511175945</v>
-      </c>
+      <c r="J67" s="23"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="24"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="24"/>
+      <c r="S67" s="24"/>
+      <c r="T67" s="24"/>
+      <c r="U67" s="24"/>
+      <c r="V67" s="24"/>
+      <c r="W67" s="24"/>
+      <c r="X67" s="24"/>
+      <c r="Y67" s="24"/>
+      <c r="Z67" s="24"/>
+      <c r="AA67" s="24"/>
+      <c r="AB67" s="24"/>
+      <c r="AC67" s="24"/>
+      <c r="AD67" s="24"/>
+      <c r="AE67" s="24"/>
+    </row>
+    <row r="68" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68"/>
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="11">
-        <v>2</v>
-      </c>
-      <c r="B69" s="11">
-        <v>-2.249901649732176</v>
-      </c>
-      <c r="C69" s="11">
-        <v>2.8382016497321763</v>
+      <c r="J68" s="23"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="24"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="24"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="24"/>
+      <c r="S68" s="24"/>
+      <c r="T68" s="24"/>
+      <c r="U68" s="24"/>
+      <c r="V68" s="24"/>
+      <c r="W68" s="24"/>
+      <c r="X68" s="24"/>
+      <c r="Y68" s="24"/>
+      <c r="Z68" s="24"/>
+      <c r="AA68" s="24"/>
+      <c r="AB68" s="24"/>
+      <c r="AC68" s="24"/>
+      <c r="AD68" s="24"/>
+      <c r="AE68" s="24"/>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
@@ -2803,16 +3938,38 @@
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="11">
-        <v>3</v>
-      </c>
-      <c r="B70" s="11">
-        <v>1.1815378350424348</v>
-      </c>
-      <c r="C70" s="11">
-        <v>1.7599621649575656</v>
+      <c r="J69" s="23"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="24"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="24"/>
+      <c r="Q69" s="24"/>
+      <c r="R69" s="24"/>
+      <c r="S69" s="24"/>
+      <c r="T69" s="24"/>
+      <c r="U69" s="24"/>
+      <c r="V69" s="24"/>
+      <c r="W69" s="24"/>
+      <c r="X69" s="24"/>
+      <c r="Y69" s="24"/>
+      <c r="Z69" s="24"/>
+      <c r="AA69" s="24"/>
+      <c r="AB69" s="24"/>
+      <c r="AC69" s="24"/>
+      <c r="AD69" s="24"/>
+      <c r="AE69" s="24"/>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>1</v>
+      </c>
+      <c r="B70" s="7">
+        <v>-1.7375179093564292</v>
+      </c>
+      <c r="C70" s="7">
+        <v>2.0557179093564293</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
@@ -2820,16 +3977,38 @@
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="11">
-        <v>4</v>
-      </c>
-      <c r="B71" s="11">
-        <v>4.6928343319972328</v>
-      </c>
-      <c r="C71" s="11">
-        <v>1.1901656680027681</v>
+      <c r="J70" s="23"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="24"/>
+      <c r="P70" s="24"/>
+      <c r="Q70" s="24"/>
+      <c r="R70" s="24"/>
+      <c r="S70" s="24"/>
+      <c r="T70" s="24"/>
+      <c r="U70" s="24"/>
+      <c r="V70" s="24"/>
+      <c r="W70" s="24"/>
+      <c r="X70" s="24"/>
+      <c r="Y70" s="24"/>
+      <c r="Z70" s="24"/>
+      <c r="AA70" s="24"/>
+      <c r="AB70" s="24"/>
+      <c r="AC70" s="24"/>
+      <c r="AD70" s="24"/>
+      <c r="AE70" s="24"/>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>2</v>
+      </c>
+      <c r="B71" s="7">
+        <v>0.12652001269851265</v>
+      </c>
+      <c r="C71" s="7">
+        <v>1.4644799873014873</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
@@ -2837,16 +4016,38 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="11">
-        <v>5</v>
-      </c>
-      <c r="B72" s="11">
-        <v>33.265360439300757</v>
-      </c>
-      <c r="C72" s="11">
-        <v>-3.8503604393007542</v>
+      <c r="J71" s="23"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="24"/>
+      <c r="P71" s="24"/>
+      <c r="Q71" s="24"/>
+      <c r="R71" s="24"/>
+      <c r="S71" s="24"/>
+      <c r="T71" s="24"/>
+      <c r="U71" s="24"/>
+      <c r="V71" s="24"/>
+      <c r="W71" s="24"/>
+      <c r="X71" s="24"/>
+      <c r="Y71" s="24"/>
+      <c r="Z71" s="24"/>
+      <c r="AA71" s="24"/>
+      <c r="AB71" s="24"/>
+      <c r="AC71" s="24"/>
+      <c r="AD71" s="24"/>
+      <c r="AE71" s="24"/>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>3</v>
+      </c>
+      <c r="B72" s="7">
+        <v>2.0339381254012432</v>
+      </c>
+      <c r="C72" s="7">
+        <v>1.1480618745987567</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -2855,15 +4056,15 @@
       <c r="H72"/>
       <c r="I72"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11">
-        <v>6</v>
-      </c>
-      <c r="B73" s="11">
-        <v>67.183146815293682</v>
-      </c>
-      <c r="C73" s="11">
-        <v>-8.3531468152936768</v>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>4</v>
+      </c>
+      <c r="B73" s="7">
+        <v>17.555200391349953</v>
+      </c>
+      <c r="C73" s="7">
+        <v>-1.6452003913499524</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
@@ -2872,15 +4073,15 @@
       <c r="H73"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="14">
-        <v>7</v>
-      </c>
-      <c r="B74" s="14">
-        <v>291.73682737921575</v>
-      </c>
-      <c r="C74" s="14">
-        <v>2.4131726207842803</v>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>5</v>
+      </c>
+      <c r="B74" s="7">
+        <v>35.9801326442823</v>
+      </c>
+      <c r="C74" s="7">
+        <v>-4.1601326442822995</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -2889,9 +4090,34 @@
       <c r="H74"/>
       <c r="I74"/>
     </row>
+    <row r="75" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="9">
+        <v>6</v>
+      </c>
+      <c r="B75" s="9">
+        <v>157.96292673562442</v>
+      </c>
+      <c r="C75" s="9">
+        <v>1.137073264375573</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2930,11 +4156,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+      <c r="A2" s="17">
         <v>42459.724305555559</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C2">
         <v>62.5</v>
@@ -2950,11 +4176,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+      <c r="A3" s="17">
         <v>42459.724305555559</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C3">
         <v>64.3</v>
@@ -2970,11 +4196,11 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+      <c r="A4" s="17">
         <v>42459.724305555559</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C4">
         <v>63.1</v>
@@ -2990,11 +4216,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="17">
         <v>42459.724305555559</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C5">
         <v>66</v>
@@ -3010,11 +4236,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="A6" s="17">
         <v>42459.724305555559</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C6">
         <v>77.7</v>
@@ -3030,11 +4256,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="17">
         <v>42459.724305555559</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C7">
         <v>74.599999999999994</v>
@@ -3050,11 +4276,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="A8" s="17">
         <v>42459.724305555559</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C8">
         <v>128.19999999999999</v>
@@ -3070,11 +4296,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="17">
         <v>42459.724305555559</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C9">
         <v>115.1</v>
@@ -3090,11 +4316,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+      <c r="A10" s="17">
         <v>42459.724305555559</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C10">
         <v>119.1</v>
@@ -3110,11 +4336,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+      <c r="A11" s="17">
         <v>42459.724305555559</v>
       </c>
       <c r="B11" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C11">
         <v>193.2</v>
@@ -3130,11 +4356,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+      <c r="A12" s="17">
         <v>42459.724305555559</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C12">
         <v>195.1</v>
@@ -3150,11 +4376,11 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+      <c r="A13" s="17">
         <v>42459.724305555559</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C13">
         <v>184.4</v>
@@ -3170,11 +4396,11 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="A14" s="17">
         <v>42459.724305555559</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C14">
         <v>369.9</v>
@@ -3190,11 +4416,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+      <c r="A15" s="17">
         <v>42459.724305555559</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C15">
         <v>343.9</v>
@@ -3210,11 +4436,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+      <c r="A16" s="17">
         <v>42459.724305555559</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C16">
         <v>414.2</v>
@@ -3230,11 +4456,11 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+      <c r="A17" s="17">
         <v>42459.724305555559</v>
       </c>
       <c r="B17" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C17">
         <v>921.1</v>
@@ -3250,11 +4476,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+      <c r="A18" s="17">
         <v>42459.724305555559</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C18">
         <v>838.7</v>
@@ -3270,11 +4496,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="A19" s="17">
         <v>42459.724305555559</v>
       </c>
       <c r="B19" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C19">
         <v>865.4</v>
@@ -3290,11 +4516,11 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+      <c r="A20" s="17">
         <v>42460.505555555559</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C20">
         <v>58.7</v>
@@ -3310,11 +4536,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
+      <c r="A21" s="17">
         <v>42460.505555555559</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C21">
         <v>62.2</v>
@@ -3330,11 +4556,11 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
+      <c r="A22" s="17">
         <v>42460.505555555559</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C22">
         <v>66.400000000000006</v>
@@ -3350,11 +4576,11 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
+      <c r="A23" s="17">
         <v>42460.505555555559</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C23">
         <v>67</v>
@@ -3370,11 +4596,11 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
+      <c r="A24" s="17">
         <v>42460.505555555559</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C24">
         <v>77.3</v>
@@ -3390,11 +4616,11 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
+      <c r="A25" s="17">
         <v>42460.505555555559</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C25">
         <v>69.400000000000006</v>
@@ -3410,11 +4636,11 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
+      <c r="A26" s="17">
         <v>42460.505555555559</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C26">
         <v>121.9</v>
@@ -3430,11 +4656,11 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
+      <c r="A27" s="17">
         <v>42460.505555555559</v>
       </c>
       <c r="B27" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C27">
         <v>127.6</v>
@@ -3450,11 +4676,11 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
+      <c r="A28" s="17">
         <v>42460.505555555559</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C28">
         <v>111.6</v>
@@ -3470,11 +4696,11 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
+      <c r="A29" s="17">
         <v>42460.505555555559</v>
       </c>
       <c r="B29" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C29">
         <v>197.1</v>
@@ -3490,11 +4716,11 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="24">
+      <c r="A30" s="17">
         <v>42460.505555555559</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C30">
         <v>194.8</v>
@@ -3510,11 +4736,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="24">
+      <c r="A31" s="17">
         <v>42460.505555555559</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C31">
         <v>190.7</v>
@@ -3530,11 +4756,11 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="24">
+      <c r="A32" s="17">
         <v>42460.505555555559</v>
       </c>
       <c r="B32" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C32">
         <v>370.9</v>
@@ -3550,11 +4776,11 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="24">
+      <c r="A33" s="17">
         <v>42460.505555555559</v>
       </c>
       <c r="B33" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C33">
         <v>346.6</v>
@@ -3570,11 +4796,11 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="24">
+      <c r="A34" s="17">
         <v>42460.505555555559</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C34">
         <v>407.1</v>
@@ -3590,11 +4816,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="24">
+      <c r="A35" s="17">
         <v>42460.505555555559</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C35">
         <v>920.1</v>
@@ -3610,11 +4836,11 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="24">
+      <c r="A36" s="17">
         <v>42460.505555555559</v>
       </c>
       <c r="B36" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C36">
         <v>834.8</v>
@@ -3630,11 +4856,11 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="24">
+      <c r="A37" s="17">
         <v>42460.505555555559</v>
       </c>
       <c r="B37" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C37">
         <v>872.6</v>
@@ -3658,8 +4884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3678,7 +4904,7 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
         <v>24</v>
@@ -3687,21 +4913,21 @@
         <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>124</v>
+        <v>117</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C2">
         <v>1.01</v>
@@ -3710,23 +4936,23 @@
         <v>8.2062499999999997E-2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C2+'Calibration Data'!$B$27</f>
-        <v>0.21259241341950702</v>
-      </c>
-      <c r="G2" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F2-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297862380430584</v>
+        <f>(C2-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.11488677264301761</v>
+      </c>
+      <c r="G2" s="1">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F2-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664780942634712</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>124</v>
+        <v>118</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C3">
         <v>1.05416666666667</v>
@@ -3735,23 +4961,23 @@
         <v>8.3858958333333303E-2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C3+'Calibration Data'!$B$27</f>
-        <v>0.22226191926930161</v>
-      </c>
-      <c r="G3" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F3-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297862398025448</v>
+        <f>(C3-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.12011683473547748</v>
+      </c>
+      <c r="G3" s="1">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F3-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664775717975113</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>124</v>
+        <v>119</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C4">
         <v>1.0791666666666699</v>
@@ -3760,23 +4986,23 @@
         <v>8.4822499999999995E-2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C4+'Calibration Data'!$B$27</f>
-        <v>0.2277352244672981</v>
-      </c>
-      <c r="G4" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F4-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297862408592163</v>
+        <f>(C4-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.1230772472406432</v>
+      </c>
+      <c r="G4" s="1">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F4-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664772760715293</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C5">
         <v>1.1083333333333301</v>
@@ -3785,23 +5011,23 @@
         <v>8.5951250000000007E-2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C5+'Calibration Data'!$B$27</f>
-        <v>0.23412074719829262</v>
-      </c>
-      <c r="G5" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F5-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297862421474921</v>
+        <f>(C5-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.12653106183000246</v>
+      </c>
+      <c r="G5" s="1">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F5-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664769310665333</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C6">
         <v>1.2916666666666701</v>
@@ -3810,23 +5036,23 @@
         <v>9.2741666666666694E-2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F6" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C6+'Calibration Data'!$B$27</f>
-        <v>0.27425831865026856</v>
-      </c>
-      <c r="G6" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F6-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297862516136189</v>
+        <f>(C6-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.14824075353455193</v>
+      </c>
+      <c r="G6" s="1">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F6-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664747626769951</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C7">
         <v>1.2</v>
@@ -3835,23 +5061,23 @@
         <v>8.9459999999999998E-2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F7" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C7+'Calibration Data'!$B$27</f>
-        <v>0.25418953292428059</v>
-      </c>
-      <c r="G7" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F7-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297862465854116</v>
+        <f>(C7-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.13738590768227718</v>
+      </c>
+      <c r="G7" s="1">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F7-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664758468257595</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C8">
         <v>2.0841666666666701</v>
@@ -3860,23 +5086,23 @@
         <v>0.117963833333333</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C8+'Calibration Data'!$B$27</f>
-        <v>0.44776209342675832</v>
-      </c>
-      <c r="G8" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F8-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297863196966007</v>
+        <f>(C8-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.24208582994830569</v>
+      </c>
+      <c r="G8" s="1">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F8-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664653935544623</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="21" t="s">
         <v>124</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C9">
         <v>2.0225</v>
@@ -3885,23 +5111,23 @@
         <v>0.11629375</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F9" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C9+'Calibration Data'!$B$27</f>
-        <v>0.43426127393836617</v>
-      </c>
-      <c r="G9" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F9-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297863128158758</v>
+        <f>(C9-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.23478347910222983</v>
+      </c>
+      <c r="G9" s="1">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F9-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664661223456394</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C10">
         <v>1.9225000000000001</v>
@@ -3910,23 +5136,23 @@
         <v>0.113331375</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F10" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C10+'Calibration Data'!$B$27</f>
-        <v>0.41236805314638009</v>
-      </c>
-      <c r="G10" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F10-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297863022257909</v>
+        <f>(C10-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.2229418290815669</v>
+      </c>
+      <c r="G10" s="1">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F10-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664673042576835</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>124</v>
+        <v>126</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C11">
         <v>3.2524999999999999</v>
@@ -3935,23 +5161,23 @@
         <v>0.147175625</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F11" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C11+'Calibration Data'!$B$27</f>
-        <v>0.70354788967979498</v>
-      </c>
-      <c r="G11" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F11-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297865005341636</v>
+        <f>(C11-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.38043577435638393</v>
+      </c>
+      <c r="G11" s="1">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F11-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664515937842419</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>124</v>
+        <v>127</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C12">
         <v>3.2491666666666701</v>
@@ -3960,23 +5186,23 @@
         <v>0.14718724999999999</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F12" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C12+'Calibration Data'!$B$27</f>
-        <v>0.70281811565339625</v>
-      </c>
-      <c r="G12" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F12-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297864998818218</v>
+        <f>(C12-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.38004105268902888</v>
+      </c>
+      <c r="G12" s="1">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F12-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664516331346495</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>124</v>
+        <v>128</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C13">
         <v>3.1258333333333299</v>
@@ -3985,23 +5211,23 @@
         <v>0.1444135</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F13" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C13+'Calibration Data'!$B$27</f>
-        <v>0.67581647667661193</v>
-      </c>
-      <c r="G13" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F13-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297864762938911</v>
+        <f>(C13-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.3654363509968771</v>
+      </c>
+      <c r="G13" s="1">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F13-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664530891852696</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>124</v>
+        <v>129</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C14">
         <v>6.1733333333333302</v>
@@ -4010,23 +5236,23 @@
         <v>0.202794</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F14" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C14+'Calibration Data'!$B$27</f>
-        <v>1.3430123803123879</v>
-      </c>
-      <c r="G14" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F14-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297873721475645</v>
+        <f>(C14-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.72631063537658003</v>
+      </c>
+      <c r="G14" s="1">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F14-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664171597548649</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>124</v>
+        <v>130</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C15">
         <v>5.75416666666667</v>
@@ -4035,23 +5261,23 @@
         <v>0.19592937499999999</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F15" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C15+'Calibration Data'!$B$27</f>
-        <v>1.2512432964926476</v>
-      </c>
-      <c r="G15" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F15-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297872102308537</v>
+        <f>(C15-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.67667438570663541</v>
+      </c>
+      <c r="G15" s="1">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F15-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664220956156519</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>124</v>
+        <v>131</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C16">
         <v>6.8441666666666698</v>
@@ -4060,23 +5286,23 @@
         <v>0.21353800000000001</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F16" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C16+'Calibration Data'!$B$27</f>
-        <v>1.489879403125296</v>
-      </c>
-      <c r="G16" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F16-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297876569620088</v>
+        <f>(C16-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.80574837093186136</v>
+      </c>
+      <c r="G16" s="1">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F16-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664092644189184</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>124</v>
+        <v>132</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C17">
         <v>15.3433333333333</v>
@@ -4085,23 +5311,23 @@
         <v>0.31990849999999998</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F17" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C17+'Calibration Data'!$B$27</f>
-        <v>3.3506207269375055</v>
-      </c>
-      <c r="G17" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F17-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297940029414399</v>
+        <f>(C17-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>1.8121899422713676</v>
+      </c>
+      <c r="G17" s="1">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F17-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12663096607452412</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>124</v>
+        <v>133</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C18">
         <v>13.945833333333301</v>
@@ -4110,23 +5336,23 @@
         <v>0.304716458333333</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F18" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C18+'Calibration Data'!$B$27</f>
-        <v>3.0446629663695002</v>
-      </c>
-      <c r="G18" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F18-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297926108912342</v>
+        <f>(C18-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>1.6467028832326032</v>
+      </c>
+      <c r="G18" s="1">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F18-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12663259840138294</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>124</v>
+        <v>134</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>115</v>
       </c>
       <c r="C19">
         <v>14.483333333333301</v>
@@ -4135,159 +5361,159 @@
         <v>0.31066749999999999</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F19" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C19+'Calibration Data'!$B$27</f>
-        <v>3.1623390281264254</v>
-      </c>
-      <c r="G19" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F19-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297931300589819</v>
+        <f>(C19-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>1.7103517520936664</v>
+      </c>
+      <c r="G19" s="1">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F19-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12663197033018719</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="B29" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="B30" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="B31" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="B32" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="B33" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="B34" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="B35" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="B36" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="B37" s="16" t="s">
         <v>116</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4300,10 +5526,10 @@
   <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2:L19"/>
+      <selection pane="bottomRight" activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4354,34 +5580,34 @@
         <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" t="s">
+        <v>91</v>
+      </c>
+      <c r="P1" t="s">
         <v>92</v>
-      </c>
-      <c r="J1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O1" t="s">
-        <v>100</v>
-      </c>
-      <c r="P1" t="s">
-        <v>101</v>
       </c>
       <c r="Q1" t="s">
         <v>30</v>
@@ -4402,12 +5628,12 @@
         <v>33</v>
       </c>
       <c r="W1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4432,11 +5658,11 @@
       </c>
       <c r="I2" s="1">
         <f>'Count-&gt;Actual Activity'!F2</f>
-        <v>0.21259241341950702</v>
+        <v>0.11488677264301761</v>
       </c>
       <c r="J2" s="1">
         <f>'Count-&gt;Actual Activity'!G2</f>
-        <v>0.23297862380430584</v>
+        <v>0.12664780942634712</v>
       </c>
       <c r="K2" s="1">
         <v>5</v>
@@ -4450,11 +5676,11 @@
       <c r="P2" s="1"/>
       <c r="Q2">
         <f>I2/K2</f>
-        <v>4.2518482683901404E-2</v>
+        <v>2.2977354528603521E-2</v>
       </c>
       <c r="R2">
         <f>SQRT((L2/K2)^2+(J2/I2)^2)*Q2</f>
-        <v>4.6595802356815465E-2</v>
+        <v>2.5329603572400772E-2</v>
       </c>
       <c r="S2">
         <f>B2*Parameters!$B$6</f>
@@ -4466,7 +5692,7 @@
       </c>
       <c r="U2">
         <f t="shared" ref="U2:U19" si="0">(S2-Q2*G2)/E2</f>
-        <v>-142.2022832237505</v>
+        <v>-76.847339560546899</v>
       </c>
       <c r="W2" t="e">
         <f t="shared" ref="W2:W19" si="1">(S2-Q2*G2)/S2</f>
@@ -4475,7 +5701,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4500,11 +5726,11 @@
       </c>
       <c r="I3" s="1">
         <f>'Count-&gt;Actual Activity'!F3</f>
-        <v>0.22226191926930161</v>
+        <v>0.12011683473547748</v>
       </c>
       <c r="J3" s="1">
         <f>'Count-&gt;Actual Activity'!G3</f>
-        <v>0.23297862398025448</v>
+        <v>0.12664775717975113</v>
       </c>
       <c r="K3" s="1">
         <v>5</v>
@@ -4518,11 +5744,11 @@
       <c r="P3" s="1"/>
       <c r="Q3">
         <f t="shared" ref="Q3:Q19" si="2">I3/K3</f>
-        <v>4.4452383853860321E-2</v>
+        <v>2.4023366947095497E-2</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R19" si="3">SQRT((L3/K3)^2+(J3/I3)^2)*Q3</f>
-        <v>4.6595809611241143E-2</v>
+        <v>2.5329597004987783E-2</v>
       </c>
       <c r="S3">
         <f>B3*Parameters!$B$6</f>
@@ -4534,7 +5760,7 @@
       </c>
       <c r="U3">
         <f t="shared" si="0"/>
-        <v>-150.17697247925784</v>
+        <v>-81.160023469917206</v>
       </c>
       <c r="W3" t="e">
         <f t="shared" si="1"/>
@@ -4543,7 +5769,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4568,11 +5794,11 @@
       </c>
       <c r="I4" s="1">
         <f>'Count-&gt;Actual Activity'!F4</f>
-        <v>0.2277352244672981</v>
+        <v>0.1230772472406432</v>
       </c>
       <c r="J4" s="1">
         <f>'Count-&gt;Actual Activity'!G4</f>
-        <v>0.23297862408592163</v>
+        <v>0.12664772760715293</v>
       </c>
       <c r="K4" s="1">
         <v>5</v>
@@ -4586,11 +5812,11 @@
       <c r="P4" s="1"/>
       <c r="Q4">
         <f t="shared" si="2"/>
-        <v>4.5547044893459621E-2</v>
+        <v>2.4615449448128639E-2</v>
       </c>
       <c r="R4">
         <f t="shared" si="3"/>
-        <v>4.6595813861032204E-2</v>
+        <v>2.5329593364356057E-2</v>
       </c>
       <c r="S4">
         <f>B4*Parameters!$B$6</f>
@@ -4602,7 +5828,7 @@
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
-        <v>-152.84243252838797</v>
+        <v>-82.602179356136375</v>
       </c>
       <c r="W4" t="e">
         <f t="shared" si="1"/>
@@ -4611,7 +5837,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>1.5800000000000002E-2</v>
@@ -4636,11 +5862,11 @@
       </c>
       <c r="I5" s="1">
         <f>'Count-&gt;Actual Activity'!F5</f>
-        <v>0.23412074719829262</v>
+        <v>0.12653106183000246</v>
       </c>
       <c r="J5" s="1">
         <f>'Count-&gt;Actual Activity'!G5</f>
-        <v>0.23297862421474921</v>
+        <v>0.12664769310665333</v>
       </c>
       <c r="K5" s="1">
         <v>5</v>
@@ -4654,32 +5880,32 @@
       <c r="P5" s="1"/>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>4.6824149439658527E-2</v>
+        <v>2.5306212366000492E-2</v>
       </c>
       <c r="R5">
         <f t="shared" si="3"/>
-        <v>4.6595818950242479E-2</v>
+        <v>2.5329589187095377E-2</v>
       </c>
       <c r="S5">
         <f>B5*Parameters!$B$6</f>
-        <v>9.9780548394793733</v>
+        <v>5.3988024914288308</v>
       </c>
       <c r="T5">
         <f>SQRT((C5/B5)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S5</f>
-        <v>6.3708500822833178E-2</v>
+        <v>3.422927639369442E-2</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>175.35231442097751</v>
+        <v>94.97288923274111</v>
       </c>
       <c r="W5">
         <f t="shared" si="1"/>
-        <v>0.53072868216365021</v>
+        <v>0.53126249003965642</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B6">
         <v>1.5800000000000002E-2</v>
@@ -4704,11 +5930,11 @@
       </c>
       <c r="I6" s="1">
         <f>'Count-&gt;Actual Activity'!F6</f>
-        <v>0.27425831865026856</v>
+        <v>0.14824075353455193</v>
       </c>
       <c r="J6" s="1">
         <f>'Count-&gt;Actual Activity'!G6</f>
-        <v>0.23297862516136189</v>
+        <v>0.12664747626769951</v>
       </c>
       <c r="K6" s="1">
         <v>5</v>
@@ -4722,32 +5948,32 @@
       <c r="P6" s="1"/>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>5.4851663730053714E-2</v>
+        <v>2.9648150706910386E-2</v>
       </c>
       <c r="R6">
         <f t="shared" si="3"/>
-        <v>4.6595854172911039E-2</v>
+        <v>2.5329564659710632E-2</v>
       </c>
       <c r="S6">
         <f>B6*Parameters!$B$6</f>
-        <v>9.9780548394793733</v>
+        <v>5.3988024914288308</v>
       </c>
       <c r="T6">
         <f>SQRT((C6/B6)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S6</f>
-        <v>6.3708500822833178E-2</v>
+        <v>3.422927639369442E-2</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>150.2638283101673</v>
+        <v>81.40426156313687</v>
       </c>
       <c r="W6">
         <f t="shared" si="1"/>
-        <v>0.45027698672263744</v>
+        <v>0.45083838955064653</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B7">
         <v>1.5800000000000002E-2</v>
@@ -4772,11 +5998,11 @@
       </c>
       <c r="I7" s="1">
         <f>'Count-&gt;Actual Activity'!F7</f>
-        <v>0.25418953292428059</v>
+        <v>0.13738590768227718</v>
       </c>
       <c r="J7" s="1">
         <f>'Count-&gt;Actual Activity'!G7</f>
-        <v>0.23297862465854116</v>
+        <v>0.12664758468257595</v>
       </c>
       <c r="K7" s="1">
         <v>5</v>
@@ -4790,32 +6016,32 @@
       <c r="P7" s="1"/>
       <c r="Q7">
         <f t="shared" si="2"/>
-        <v>5.0837906584856117E-2</v>
+        <v>2.7477181536455435E-2</v>
       </c>
       <c r="R7">
         <f t="shared" si="3"/>
-        <v>4.6595835864188549E-2</v>
+        <v>2.5329576550334007E-2</v>
       </c>
       <c r="S7">
         <f>B7*Parameters!$B$6</f>
-        <v>9.9780548394793733</v>
+        <v>5.3988024914288308</v>
       </c>
       <c r="T7">
         <f>SQRT((C7/B7)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S7</f>
-        <v>6.3708500822833178E-2</v>
+        <v>3.422927639369442E-2</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>160.46767806536926</v>
+        <v>86.920797960107777</v>
       </c>
       <c r="W7">
         <f t="shared" si="1"/>
-        <v>0.49050283444314391</v>
+        <v>0.49105043979515151</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B8">
         <v>7.9200000000000007E-2</v>
@@ -4840,11 +6066,11 @@
       </c>
       <c r="I8" s="1">
         <f>'Count-&gt;Actual Activity'!F8</f>
-        <v>0.44776209342675832</v>
+        <v>0.24208582994830569</v>
       </c>
       <c r="J8" s="1">
         <f>'Count-&gt;Actual Activity'!G8</f>
-        <v>0.23297863196966007</v>
+        <v>0.12664653935544623</v>
       </c>
       <c r="K8" s="1">
         <v>5</v>
@@ -4858,32 +6084,32 @@
       <c r="P8" s="1"/>
       <c r="Q8">
         <f t="shared" si="2"/>
-        <v>8.9552418685351659E-2</v>
+        <v>4.8417165989661136E-2</v>
       </c>
       <c r="R8">
         <f t="shared" si="3"/>
-        <v>4.659607061460163E-2</v>
+        <v>2.532949296998014E-2</v>
       </c>
       <c r="S8">
         <f>B8*Parameters!$B$6</f>
-        <v>50.016578689035846</v>
+        <v>27.062351729187554</v>
       </c>
       <c r="T8">
         <f>SQRT((C8/B8)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S8</f>
-        <v>7.59033800787903E-2</v>
+        <v>3.5637963826780028E-2</v>
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
-        <v>1373.2888568729325</v>
+        <v>743.1650545224561</v>
       </c>
       <c r="W8">
         <f t="shared" si="1"/>
-        <v>0.82095452941289948</v>
+        <v>0.82109032328686427</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B9">
         <v>7.9200000000000007E-2</v>
@@ -4908,11 +6134,11 @@
       </c>
       <c r="I9" s="1">
         <f>'Count-&gt;Actual Activity'!F9</f>
-        <v>0.43426127393836617</v>
+        <v>0.23478347910222983</v>
       </c>
       <c r="J9" s="1">
         <f>'Count-&gt;Actual Activity'!G9</f>
-        <v>0.23297863128158758</v>
+        <v>0.12664661223456394</v>
       </c>
       <c r="K9" s="1">
         <v>5</v>
@@ -4926,32 +6152,32 @@
       <c r="P9" s="1"/>
       <c r="Q9">
         <f t="shared" si="2"/>
-        <v>8.6852254787673236E-2</v>
+        <v>4.6956695820445968E-2</v>
       </c>
       <c r="R9">
         <f t="shared" si="3"/>
-        <v>4.6596050032275529E-2</v>
+        <v>2.5329496547401208E-2</v>
       </c>
       <c r="S9">
         <f>B9*Parameters!$B$6</f>
-        <v>50.016578689035846</v>
+        <v>27.062351729187554</v>
       </c>
       <c r="T9">
         <f>SQRT((C9/B9)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S9</f>
-        <v>7.59033800787903E-2</v>
+        <v>3.5637963826780028E-2</v>
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>1382.3195053601514</v>
+        <v>748.0495701385604</v>
       </c>
       <c r="W9">
         <f t="shared" si="1"/>
-        <v>0.82635306719467372</v>
+        <v>0.82648700936880592</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B10">
         <v>7.9200000000000007E-2</v>
@@ -4976,11 +6202,11 @@
       </c>
       <c r="I10" s="1">
         <f>'Count-&gt;Actual Activity'!F10</f>
-        <v>0.41236805314638009</v>
+        <v>0.2229418290815669</v>
       </c>
       <c r="J10" s="1">
         <f>'Count-&gt;Actual Activity'!G10</f>
-        <v>0.23297863022257909</v>
+        <v>0.12664673042576835</v>
       </c>
       <c r="K10" s="1">
         <v>5</v>
@@ -4994,32 +6220,32 @@
       <c r="P10" s="1"/>
       <c r="Q10">
         <f t="shared" si="2"/>
-        <v>8.2473610629276023E-2</v>
+        <v>4.4588365816313383E-2</v>
       </c>
       <c r="R10">
         <f t="shared" si="3"/>
-        <v>4.6596017997264219E-2</v>
+        <v>2.5329503066403698E-2</v>
       </c>
       <c r="S10">
         <f>B10*Parameters!$B$6</f>
-        <v>50.016578689035846</v>
+        <v>27.062351729187554</v>
       </c>
       <c r="T10">
         <f>SQRT((C10/B10)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S10</f>
-        <v>7.59033800787903E-2</v>
+        <v>3.5637963826780028E-2</v>
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
-        <v>1378.5220338649585</v>
+        <v>745.99059892924799</v>
       </c>
       <c r="W10">
         <f t="shared" si="1"/>
-        <v>0.83510745278673948</v>
+        <v>0.83523839220438667</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B11">
         <v>0.158</v>
@@ -5044,11 +6270,11 @@
       </c>
       <c r="I11" s="1">
         <f>'Count-&gt;Actual Activity'!F11</f>
-        <v>0.70354788967979498</v>
+        <v>0.38043577435638393</v>
       </c>
       <c r="J11" s="1">
         <f>'Count-&gt;Actual Activity'!G11</f>
-        <v>0.23297865005341636</v>
+        <v>0.12664515937842419</v>
       </c>
       <c r="K11" s="1">
         <v>5</v>
@@ -5062,32 +6288,32 @@
       <c r="P11" s="1"/>
       <c r="Q11">
         <f t="shared" si="2"/>
-        <v>0.14070957793595901</v>
+        <v>7.6087154871276791E-2</v>
       </c>
       <c r="R11">
         <f t="shared" si="3"/>
-        <v>4.659657983124707E-2</v>
+        <v>2.5329488995635193E-2</v>
       </c>
       <c r="S11">
         <f>B11*Parameters!$B$6</f>
-        <v>99.780548394793726</v>
+        <v>53.988024914288303</v>
       </c>
       <c r="T11">
         <f>SQRT((C11/B11)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S11</f>
-        <v>0.63708500822833181</v>
+        <v>0.34229276393694419</v>
       </c>
       <c r="U11">
         <f t="shared" si="0"/>
-        <v>2819.3944276709813</v>
+        <v>1525.6351785250204</v>
       </c>
       <c r="W11">
         <f t="shared" si="1"/>
-        <v>0.85898095350285653</v>
+        <v>0.85906660784114031</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B12">
         <v>0.158</v>
@@ -5112,11 +6338,11 @@
       </c>
       <c r="I12" s="1">
         <f>'Count-&gt;Actual Activity'!F12</f>
-        <v>0.70281811565339625</v>
+        <v>0.38004105268902888</v>
       </c>
       <c r="J12" s="1">
         <f>'Count-&gt;Actual Activity'!G12</f>
-        <v>0.23297864998818218</v>
+        <v>0.12664516331346495</v>
       </c>
       <c r="K12" s="1">
         <v>5</v>
@@ -5130,32 +6356,32 @@
       <c r="P12" s="1"/>
       <c r="Q12">
         <f t="shared" si="2"/>
-        <v>0.14056362313067924</v>
+        <v>7.6008210537805779E-2</v>
       </c>
       <c r="R12">
         <f t="shared" si="3"/>
-        <v>4.6596578056132258E-2</v>
+        <v>2.5329488834558923E-2</v>
       </c>
       <c r="S12">
         <f>B12*Parameters!$B$6</f>
-        <v>99.780548394793726</v>
+        <v>53.988024914288303</v>
       </c>
       <c r="T12">
         <f>SQRT((C12/B12)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S12</f>
-        <v>0.63708500822833181</v>
+        <v>0.34229276393694419</v>
       </c>
       <c r="U12">
         <f t="shared" si="0"/>
-        <v>2847.9796040440469</v>
+        <v>1541.1031182892932</v>
       </c>
       <c r="W12">
         <f t="shared" si="1"/>
-        <v>0.8591272293127491</v>
+        <v>0.85921283347839295</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B13">
         <v>0.158</v>
@@ -5180,11 +6406,11 @@
       </c>
       <c r="I13" s="1">
         <f>'Count-&gt;Actual Activity'!F13</f>
-        <v>0.67581647667661193</v>
+        <v>0.3654363509968771</v>
       </c>
       <c r="J13" s="1">
         <f>'Count-&gt;Actual Activity'!G13</f>
-        <v>0.23297864762938911</v>
+        <v>0.12664530891852696</v>
       </c>
       <c r="K13" s="1">
         <v>5</v>
@@ -5198,32 +6424,32 @@
       <c r="P13" s="1"/>
       <c r="Q13">
         <f t="shared" si="2"/>
-        <v>0.1351632953353224</v>
+        <v>7.3087270199375415E-2</v>
       </c>
       <c r="R13">
         <f t="shared" si="3"/>
-        <v>4.6596513673389628E-2</v>
+        <v>2.5329483568344333E-2</v>
       </c>
       <c r="S13">
         <f>B13*Parameters!$B$6</f>
-        <v>99.780548394793726</v>
+        <v>53.988024914288303</v>
       </c>
       <c r="T13">
         <f>SQRT((C13/B13)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S13</f>
-        <v>0.63708500822833181</v>
+        <v>0.34229276393694419</v>
       </c>
       <c r="U13">
         <f t="shared" si="0"/>
-        <v>2791.722293244708</v>
+        <v>1510.6568897848142</v>
       </c>
       <c r="W13">
         <f t="shared" si="1"/>
-        <v>0.86453943427878088</v>
+        <v>0.8646231820567446</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B14">
         <v>0.39600000000000002</v>
@@ -5248,11 +6474,11 @@
       </c>
       <c r="I14" s="1">
         <f>'Count-&gt;Actual Activity'!F14</f>
-        <v>1.3430123803123879</v>
+        <v>0.72631063537658003</v>
       </c>
       <c r="J14" s="1">
         <f>'Count-&gt;Actual Activity'!G14</f>
-        <v>0.23297873721475645</v>
+        <v>0.12664171597548649</v>
       </c>
       <c r="K14" s="1">
         <v>5</v>
@@ -5266,32 +6492,32 @@
       <c r="P14" s="1"/>
       <c r="Q14">
         <f t="shared" si="2"/>
-        <v>0.26860247606247756</v>
+        <v>0.14526212707531599</v>
       </c>
       <c r="R14">
         <f t="shared" si="3"/>
-        <v>4.6598844072872542E-2</v>
+        <v>2.5330009343679311E-2</v>
       </c>
       <c r="S14">
         <f>B14*Parameters!$B$6</f>
-        <v>250.08289344517922</v>
+        <v>135.31175864593777</v>
       </c>
       <c r="T14">
         <f>SQRT((C14/B14)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S14</f>
-        <v>0.66569402813006118</v>
+        <v>0.34542569907599352</v>
       </c>
       <c r="U14">
         <f t="shared" si="0"/>
-        <v>7670.8813003069235</v>
+        <v>4150.7060459933391</v>
       </c>
       <c r="W14">
         <f t="shared" si="1"/>
-        <v>0.89259462238213505</v>
+        <v>0.89264633870038246</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B15">
         <v>0.39600000000000002</v>
@@ -5316,11 +6542,11 @@
       </c>
       <c r="I15" s="1">
         <f>'Count-&gt;Actual Activity'!F15</f>
-        <v>1.2512432964926476</v>
+        <v>0.67667438570663541</v>
       </c>
       <c r="J15" s="1">
         <f>'Count-&gt;Actual Activity'!G15</f>
-        <v>0.23297872102308537</v>
+        <v>0.12664220956156519</v>
       </c>
       <c r="K15" s="1">
         <v>5</v>
@@ -5334,32 +6560,32 @@
       <c r="P15" s="1"/>
       <c r="Q15">
         <f t="shared" si="2"/>
-        <v>0.25024865929852952</v>
+        <v>0.13533487714132708</v>
       </c>
       <c r="R15">
         <f t="shared" si="3"/>
-        <v>4.6598432114697032E-2</v>
+        <v>2.5329888113082913E-2</v>
       </c>
       <c r="S15">
         <f>B15*Parameters!$B$6</f>
-        <v>250.08289344517922</v>
+        <v>135.31175864593777</v>
       </c>
       <c r="T15">
         <f>SQRT((C15/B15)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S15</f>
-        <v>0.66569402813006118</v>
+        <v>0.34542569907599352</v>
       </c>
       <c r="U15">
         <f t="shared" si="0"/>
-        <v>7577.7113641523993</v>
+        <v>4100.2784825523595</v>
       </c>
       <c r="W15">
         <f t="shared" si="1"/>
-        <v>0.89993371563681679</v>
+        <v>0.89998291464421076</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B16">
         <v>0.39600000000000002</v>
@@ -5384,11 +6610,11 @@
       </c>
       <c r="I16" s="1">
         <f>'Count-&gt;Actual Activity'!F16</f>
-        <v>1.489879403125296</v>
+        <v>0.80574837093186136</v>
       </c>
       <c r="J16" s="1">
         <f>'Count-&gt;Actual Activity'!G16</f>
-        <v>0.23297876569620088</v>
+        <v>0.12664092644189184</v>
       </c>
       <c r="K16" s="1">
         <v>5</v>
@@ -5402,32 +6628,32 @@
       <c r="P16" s="1"/>
       <c r="Q16">
         <f t="shared" si="2"/>
-        <v>0.2979758806250592</v>
+        <v>0.16114967418637227</v>
       </c>
       <c r="R16">
         <f t="shared" si="3"/>
-        <v>4.6599564044256331E-2</v>
+        <v>2.5330235823465753E-2</v>
       </c>
       <c r="S16">
         <f>B16*Parameters!$B$6</f>
-        <v>250.08289344517922</v>
+        <v>135.31175864593777</v>
       </c>
       <c r="T16">
         <f>SQRT((C16/B16)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S16</f>
-        <v>0.66569402813006118</v>
+        <v>0.34542569907599352</v>
       </c>
       <c r="U16">
         <f t="shared" si="0"/>
-        <v>7270.1420918374024</v>
+        <v>3933.8874992508427</v>
       </c>
       <c r="W16">
         <f t="shared" si="1"/>
-        <v>0.88084915504611327</v>
+        <v>0.88090490006264488</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B17">
         <v>0.79200000000000004</v>
@@ -5452,11 +6678,11 @@
       </c>
       <c r="I17" s="1">
         <f>'Count-&gt;Actual Activity'!F17</f>
-        <v>3.3506207269375055</v>
+        <v>1.8121899422713676</v>
       </c>
       <c r="J17" s="1">
         <f>'Count-&gt;Actual Activity'!G17</f>
-        <v>0.23297940029414399</v>
+        <v>0.12663096607452412</v>
       </c>
       <c r="K17" s="1">
         <v>5</v>
@@ -5466,32 +6692,32 @@
       </c>
       <c r="Q17">
         <f t="shared" si="2"/>
-        <v>0.67012414538750109</v>
+        <v>0.36243798845427355</v>
       </c>
       <c r="R17">
         <f t="shared" si="3"/>
-        <v>4.6615151012709209E-2</v>
+        <v>2.5336564643625038E-2</v>
       </c>
       <c r="S17">
         <f>B17*Parameters!$B$6</f>
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="T17">
         <f>SQRT((C17/B17)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S17</f>
-        <v>0.75903380078790295</v>
+        <v>0.35637963826780028</v>
       </c>
       <c r="U17">
         <f t="shared" si="0"/>
-        <v>14486.734861257804</v>
+        <v>7838.7865701153241</v>
       </c>
       <c r="W17">
         <f t="shared" si="1"/>
-        <v>0.86601959531182426</v>
+        <v>0.86607298874791672</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B18">
         <v>0.79200000000000004</v>
@@ -5516,11 +6742,11 @@
       </c>
       <c r="I18" s="1">
         <f>'Count-&gt;Actual Activity'!F18</f>
-        <v>3.0446629663695002</v>
+        <v>1.6467028832326032</v>
       </c>
       <c r="J18" s="1">
         <f>'Count-&gt;Actual Activity'!G18</f>
-        <v>0.23297926108912342</v>
+        <v>0.12663259840138294</v>
       </c>
       <c r="K18" s="1">
         <v>5</v>
@@ -5530,32 +6756,32 @@
       </c>
       <c r="Q18">
         <f t="shared" si="2"/>
-        <v>0.60893259327390004</v>
+        <v>0.32934057664652061</v>
       </c>
       <c r="R18">
         <f t="shared" si="3"/>
-        <v>4.6611765033282772E-2</v>
+        <v>2.5335083579438627E-2</v>
       </c>
       <c r="S18">
         <f>B18*Parameters!$B$6</f>
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="T18">
         <f>SQRT((C18/B18)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S18</f>
-        <v>0.75903380078790295</v>
+        <v>0.35637963826780028</v>
       </c>
       <c r="U18">
         <f t="shared" si="0"/>
-        <v>14790.32079336594</v>
+        <v>8003.0121086607223</v>
       </c>
       <c r="W18">
         <f t="shared" si="1"/>
-        <v>0.87825384917673621</v>
+        <v>0.87830304626064071</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B19">
         <v>0.79200000000000004</v>
@@ -5580,11 +6806,11 @@
       </c>
       <c r="I19" s="1">
         <f>'Count-&gt;Actual Activity'!F19</f>
-        <v>3.1623390281264254</v>
+        <v>1.7103517520936664</v>
       </c>
       <c r="J19" s="1">
         <f>'Count-&gt;Actual Activity'!G19</f>
-        <v>0.23297931300589819</v>
+        <v>0.12663197033018719</v>
       </c>
       <c r="K19" s="1">
         <v>5</v>
@@ -5594,27 +6820,27 @@
       </c>
       <c r="Q19">
         <f t="shared" si="2"/>
-        <v>0.63246780562528504</v>
+        <v>0.34207035041873329</v>
       </c>
       <c r="R19">
         <f t="shared" si="3"/>
-        <v>4.6613029011732553E-2</v>
+        <v>2.5335632711395991E-2</v>
       </c>
       <c r="S19">
         <f>B19*Parameters!$B$6</f>
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="T19">
         <f>SQRT((C19/B19)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S19</f>
-        <v>0.75903380078790295</v>
+        <v>0.35637963826780028</v>
       </c>
       <c r="U19">
         <f t="shared" si="0"/>
-        <v>14711.077654135688</v>
+        <v>7960.1509175084921</v>
       </c>
       <c r="W19">
         <f t="shared" si="1"/>
-        <v>0.8735483669210008</v>
+        <v>0.87359917798651621</v>
       </c>
     </row>
   </sheetData>
@@ -5626,8 +6852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5640,28 +6866,28 @@
         <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
         <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="H1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="I1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="J1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -5670,19 +6896,19 @@
       </c>
       <c r="B2">
         <f>AVERAGE('Bottle Results'!Q2:Q4)</f>
-        <v>4.4172637143740451E-2</v>
+        <v>2.3872056974609219E-2</v>
       </c>
       <c r="C2">
         <f>_xlfn.STDEV.S('Bottle Results'!Q2:Q4)</f>
-        <v>1.5335386955203333E-3</v>
+        <v>8.2946354481306175E-4</v>
       </c>
       <c r="D2">
         <f>AVERAGE('Bottle Results'!U2:U4)</f>
-        <v>-148.40722941046542</v>
+        <v>-80.203180795533498</v>
       </c>
       <c r="E2">
         <f>_xlfn.STDEV.S('Bottle Results'!U2:U4)</f>
-        <v>5.536441745688145</v>
+        <v>2.994362402226292</v>
       </c>
       <c r="F2">
         <f>AVERAGE('Bottle Results'!S2:S4)</f>
@@ -5707,31 +6933,31 @@
       </c>
       <c r="B3">
         <f>AVERAGE('Bottle Results'!Q5:Q7)</f>
-        <v>5.0837906584856124E-2</v>
+        <v>2.7477181536455439E-2</v>
       </c>
       <c r="C3">
         <f>_xlfn.STDEV.S('Bottle Results'!Q5:Q7)</f>
-        <v>4.0137571451975933E-3</v>
+        <v>2.1709691704549471E-3</v>
       </c>
       <c r="D3">
         <f>AVERAGE('Bottle Results'!U5:U7)</f>
-        <v>162.02794026550467</v>
+        <v>87.765982918661919</v>
       </c>
       <c r="E3">
         <f>_xlfn.STDEV.S('Bottle Results'!U5:U7)</f>
-        <v>12.616808131732755</v>
+        <v>6.8236842995343849</v>
       </c>
       <c r="F3">
         <f>AVERAGE('Bottle Results'!S5:S7)</f>
-        <v>9.9780548394793733</v>
+        <v>5.3988024914288308</v>
       </c>
       <c r="G3">
         <f>AVERAGE('Bottle Results'!W5:W7)</f>
-        <v>0.49050283444314385</v>
+        <v>0.49105043979515156</v>
       </c>
       <c r="H3">
         <f>_xlfn.STDEV.S('Bottle Results'!W5:W7)</f>
-        <v>4.0225847720506386E-2</v>
+        <v>4.0212050244504943E-2</v>
       </c>
       <c r="I3">
         <f>AVERAGE('Bottle Results'!D5:D7)</f>
@@ -5748,31 +6974,31 @@
       </c>
       <c r="B4">
         <f>AVERAGE('Bottle Results'!Q8:Q10)</f>
-        <v>8.6292761367433649E-2</v>
+        <v>4.6654075875473489E-2</v>
       </c>
       <c r="C4">
         <f>_xlfn.STDEV.S('Bottle Results'!Q8:Q10)</f>
-        <v>3.5724159247152174E-3</v>
+        <v>1.932255628838561E-3</v>
       </c>
       <c r="D4">
         <f>AVERAGE('Bottle Results'!U8:U10)</f>
-        <v>1378.0434653660141</v>
+        <v>745.73507453008813</v>
       </c>
       <c r="E4">
         <f>_xlfn.STDEV.S('Bottle Results'!U8:U10)</f>
-        <v>4.5343052258382404</v>
+        <v>2.4522627795397813</v>
       </c>
       <c r="F4">
         <f>AVERAGE('Bottle Results'!S8:S10)</f>
-        <v>50.016578689035846</v>
+        <v>27.062351729187554</v>
       </c>
       <c r="G4">
         <f>AVERAGE('Bottle Results'!W8:W10)</f>
-        <v>0.8274716831314376</v>
+        <v>0.82760524162001892</v>
       </c>
       <c r="H4">
         <f>_xlfn.STDEV.S('Bottle Results'!W8:W10)</f>
-        <v>7.142463595772342E-3</v>
+        <v>7.1400137289420263E-3</v>
       </c>
       <c r="I4">
         <f>AVERAGE('Bottle Results'!D8:D10)</f>
@@ -5789,31 +7015,31 @@
       </c>
       <c r="B5">
         <f>AVERAGE('Bottle Results'!Q11:Q13)</f>
-        <v>0.1388121654673202</v>
+        <v>7.5060878536152661E-2</v>
       </c>
       <c r="C5">
         <f>_xlfn.STDEV.S('Bottle Results'!Q11:Q13)</f>
-        <v>3.1608567875554558E-3</v>
+        <v>1.709650681336478E-3</v>
       </c>
       <c r="D5">
         <f>AVERAGE('Bottle Results'!U11:U13)</f>
-        <v>2819.6987749865784</v>
+        <v>1525.7983955330426</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S('Bottle Results'!U11:U13)</f>
-        <v>28.129890242582498</v>
+        <v>15.223770471881075</v>
       </c>
       <c r="F5">
         <f>AVERAGE('Bottle Results'!S11:S13)</f>
-        <v>99.780548394793712</v>
+        <v>53.988024914288303</v>
       </c>
       <c r="G5">
         <f>AVERAGE('Bottle Results'!W11:W13)</f>
-        <v>0.86088253903146228</v>
+        <v>0.86096754112542595</v>
       </c>
       <c r="H5">
         <f>_xlfn.STDEV.S('Bottle Results'!W11:W13)</f>
-        <v>3.1678085943656039E-3</v>
+        <v>3.1667220352119148E-3</v>
       </c>
       <c r="I5">
         <f>AVERAGE('Bottle Results'!D11:D13)</f>
@@ -5830,31 +7056,31 @@
       </c>
       <c r="B6">
         <f>AVERAGE('Bottle Results'!Q14:Q16)</f>
-        <v>0.27227567199535541</v>
+        <v>0.14724889280100512</v>
       </c>
       <c r="C6">
         <f>_xlfn.STDEV.S('Bottle Results'!Q14:Q16)</f>
-        <v>2.4074700209117249E-2</v>
+        <v>1.3021573067636575E-2</v>
       </c>
       <c r="D6">
         <f>AVERAGE('Bottle Results'!U14:U16)</f>
-        <v>7506.2449187655757</v>
+        <v>4061.6240092655135</v>
       </c>
       <c r="E6">
         <f>_xlfn.STDEV.S('Bottle Results'!U14:U16)</f>
-        <v>209.71067667948029</v>
+        <v>113.46011097163016</v>
       </c>
       <c r="F6">
         <f>AVERAGE('Bottle Results'!S14:S16)</f>
-        <v>250.08289344517922</v>
+        <v>135.31175864593777</v>
       </c>
       <c r="G6">
         <f>AVERAGE('Bottle Results'!W14:W16)</f>
-        <v>0.89112583102168841</v>
+        <v>0.891178051135746</v>
       </c>
       <c r="H6">
         <f>_xlfn.STDEV.S('Bottle Results'!W14:W16)</f>
-        <v>9.6266881262691024E-3</v>
+        <v>9.6233861697928129E-3</v>
       </c>
       <c r="I6">
         <f>AVERAGE('Bottle Results'!D14:D16)</f>
@@ -5871,31 +7097,31 @@
       </c>
       <c r="B7">
         <f>AVERAGE('Bottle Results'!Q17:Q19)</f>
-        <v>0.63717484809556202</v>
+        <v>0.34461630517317582</v>
       </c>
       <c r="C7">
         <f>_xlfn.STDEV.S('Bottle Results'!Q17:Q19)</f>
-        <v>3.0866141630120084E-2</v>
+        <v>1.669494178791131E-2</v>
       </c>
       <c r="D7">
         <f>AVERAGE('Bottle Results'!U17:U19)</f>
-        <v>14662.711102919811</v>
+        <v>7933.9831987615134</v>
       </c>
       <c r="E7">
         <f>_xlfn.STDEV.S('Bottle Results'!U17:U19)</f>
-        <v>157.46617732351254</v>
+        <v>85.182562804527507</v>
       </c>
       <c r="F7">
         <f>AVERAGE('Bottle Results'!S17:S19)</f>
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="G7">
         <f>AVERAGE('Bottle Results'!W17:W19)</f>
-        <v>0.87260727046985365</v>
+        <v>0.87265840433169117</v>
       </c>
       <c r="H7">
         <f>_xlfn.STDEV.S('Bottle Results'!W17:W19)</f>
-        <v>6.1711821238357081E-3</v>
+        <v>6.1690654067973472E-3</v>
       </c>
       <c r="I7">
         <f>AVERAGE('Bottle Results'!D17:D19)</f>

--- a/Sorption Experiments/RaMont_pH9/RaMont_pH9_NoScript.xlsx
+++ b/Sorption Experiments/RaMont_pH9/RaMont_pH9_NoScript.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="129">
   <si>
     <t>Parameters</t>
   </si>
@@ -413,6 +413,12 @@
   </si>
   <si>
     <t>cps-&gt;Bq (background, Stds, and RaStock 5)</t>
+  </si>
+  <si>
+    <t>MinMass (g)</t>
+  </si>
+  <si>
+    <t>sMinMass (g)</t>
   </si>
 </sst>
 </file>
@@ -579,27 +585,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -815,11 +801,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="226857768"/>
-        <c:axId val="226859728"/>
+        <c:axId val="85365968"/>
+        <c:axId val="85361264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="226857768"/>
+        <c:axId val="85365968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -847,12 +833,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226859728"/>
+        <c:crossAx val="85361264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226859728"/>
+        <c:axId val="85361264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -880,7 +866,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226857768"/>
+        <c:crossAx val="85365968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1115,11 +1101,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="226859336"/>
-        <c:axId val="226856592"/>
+        <c:axId val="85360088"/>
+        <c:axId val="85366360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="226859336"/>
+        <c:axId val="85360088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1147,12 +1133,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226856592"/>
+        <c:crossAx val="85366360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226856592"/>
+        <c:axId val="85366360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1180,7 +1166,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226859336"/>
+        <c:crossAx val="85360088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6313,7 +6299,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="T2" sqref="T2"/>
@@ -7566,15 +7552,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -7606,13 +7596,19 @@
         <v>112</v>
       </c>
       <c r="K1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" t="s">
         <v>115</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -7649,14 +7645,22 @@
         <v>9.9999999999997868E-3</v>
       </c>
       <c r="K2">
+        <f>AVERAGE('Bottle Results'!E2:E4)</f>
+        <v>2.9766666666666663E-2</v>
+      </c>
+      <c r="L2">
+        <f>_xlfn.STDEV.S('Bottle Results'!E2:E4)</f>
+        <v>1.5275252316519376E-4</v>
+      </c>
+      <c r="M2">
         <f>COUNT('Bottle Results'!I2:I4)</f>
         <v>3</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -7697,14 +7701,22 @@
         <v>5.7735026918961348E-3</v>
       </c>
       <c r="K3">
+        <f>AVERAGE('Bottle Results'!E5:E7)</f>
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="L3">
+        <f>_xlfn.STDEV.S('Bottle Results'!E5:E7)</f>
+        <v>2.9999999999999992E-4</v>
+      </c>
+      <c r="M3">
         <f>COUNT('Bottle Results'!I5:I7)</f>
         <v>3</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50</v>
       </c>
@@ -7745,11 +7757,19 @@
         <v>1.527525231651914E-2</v>
       </c>
       <c r="K4">
+        <f>AVERAGE('Bottle Results'!E8:E10)</f>
+        <v>3.0033333333333332E-2</v>
+      </c>
+      <c r="L4">
+        <f>_xlfn.STDEV.S('Bottle Results'!E8:E10)</f>
+        <v>2.3094010767585091E-4</v>
+      </c>
+      <c r="M4">
         <f>COUNT('Bottle Results'!I8:I10)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
@@ -7790,11 +7810,19 @@
         <v>1.130388330520854E-2</v>
       </c>
       <c r="K5">
+        <f>AVERAGE('Bottle Results'!E11:E13)</f>
+        <v>3.0466666666666666E-2</v>
+      </c>
+      <c r="L5">
+        <f>_xlfn.STDEV.S('Bottle Results'!E11:E13)</f>
+        <v>4.0414518843273904E-4</v>
+      </c>
+      <c r="M5">
         <f>COUNT('Bottle Results'!I11:I13)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>250</v>
       </c>
@@ -7835,11 +7863,19 @@
         <v>0</v>
       </c>
       <c r="K6">
+        <f>AVERAGE('Bottle Results'!E14:E16)</f>
+        <v>2.9700000000000004E-2</v>
+      </c>
+      <c r="L6">
+        <f>_xlfn.STDEV.S('Bottle Results'!E14:E16)</f>
+        <v>5.9999999999999984E-4</v>
+      </c>
+      <c r="M6">
         <f>COUNT('Bottle Results'!I14:I16)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>500</v>
       </c>
@@ -7880,6 +7916,14 @@
         <v>0</v>
       </c>
       <c r="K7">
+        <f>AVERAGE('Bottle Results'!E17:E19)</f>
+        <v>2.9766666666666667E-2</v>
+      </c>
+      <c r="L7">
+        <f>_xlfn.STDEV.S('Bottle Results'!E17:E19)</f>
+        <v>1.1547005383792445E-4</v>
+      </c>
+      <c r="M7">
         <f>COUNT('Bottle Results'!I17:I19)</f>
         <v>3</v>
       </c>
